--- a/V.xlsx
+++ b/V.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\denni\Desktop\CompanyResearchModels\Software\Fintech\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\denni\Desktop\ModelsResearchMetrics\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41F87CA2-5B05-40E9-8CAB-A54CD826EDAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{749EC2EF-1F92-4B03-9CDE-06946A17CB08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14505" yWindow="75" windowWidth="14235" windowHeight="15495" xr2:uid="{5C870BBA-D338-4729-A6A0-0DD5E41BDE8A}"/>
+    <workbookView xWindow="90" yWindow="90" windowWidth="14235" windowHeight="15495" xr2:uid="{5C870BBA-D338-4729-A6A0-0DD5E41BDE8A}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -120,9 +120,6 @@
     <t>Operating margin</t>
   </si>
   <si>
-    <t>Interest margin</t>
-  </si>
-  <si>
     <t>EPS</t>
   </si>
   <si>
@@ -369,9 +366,6 @@
     <t>Compensation</t>
   </si>
   <si>
-    <t>AL</t>
-  </si>
-  <si>
     <t>AP</t>
   </si>
   <si>
@@ -454,16 +448,21 @@
   </si>
   <si>
     <t>ROTA</t>
+  </si>
+  <si>
+    <t>FQ225</t>
+  </si>
+  <si>
+    <t>Accrued</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0\x"/>
-    <numFmt numFmtId="165" formatCode="0.0%"/>
-    <numFmt numFmtId="166" formatCode="d/mm/yy;@"/>
+    <numFmt numFmtId="165" formatCode="d/mm/yy;@"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -512,7 +511,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -521,7 +520,6 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -531,7 +529,7 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
@@ -550,7 +548,6 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -572,15 +569,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>116</xdr:row>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>115</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -596,7 +593,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9553575" y="0"/>
+          <a:off x="10277475" y="0"/>
           <a:ext cx="0" cy="18678525"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -630,7 +627,7 @@
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>117</xdr:row>
+      <xdr:row>116</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -993,7 +990,7 @@
   <dimension ref="B2:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1003,7 +1000,7 @@
   <sheetData>
     <row r="2" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>0</v>
@@ -1012,28 +1009,28 @@
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="K3" t="s">
         <v>1</v>
       </c>
-      <c r="L3">
-        <v>335</v>
+      <c r="L3" s="2">
+        <v>345</v>
       </c>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="K4" t="s">
         <v>2</v>
       </c>
       <c r="L4" s="2">
-        <f>1723.362347+9.24064</f>
-        <v>1732.602987</v>
-      </c>
-      <c r="M4" t="s">
-        <v>43</v>
+        <f>+Model!P48</f>
+        <v>1983</v>
+      </c>
+      <c r="M4" s="8" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.2">
@@ -1042,125 +1039,127 @@
       </c>
       <c r="L5" s="2">
         <f>+L3*L4</f>
-        <v>580422.00064500002</v>
-      </c>
+        <v>684135</v>
+      </c>
+      <c r="M5" s="8"/>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="K6" t="s">
         <v>4</v>
       </c>
       <c r="L6" s="2">
-        <v>19203</v>
-      </c>
-      <c r="M6" t="s">
-        <v>43</v>
+        <f>+Model!P57</f>
+        <v>18147</v>
+      </c>
+      <c r="M6" s="8" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B7" s="13" t="s">
-        <v>123</v>
+      <c r="B7" s="12" t="s">
+        <v>121</v>
       </c>
       <c r="K7" t="s">
         <v>5</v>
       </c>
       <c r="L7" s="2">
-        <f>3929+16680</f>
-        <v>20609</v>
-      </c>
-      <c r="M7" t="s">
-        <v>43</v>
+        <f>+Model!P73</f>
+        <v>20762</v>
+      </c>
+      <c r="M7" s="8" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B8" s="14" t="s">
-        <v>74</v>
+      <c r="B8" s="13" t="s">
+        <v>73</v>
       </c>
       <c r="K8" t="s">
         <v>6</v>
       </c>
       <c r="L8" s="2">
         <f>+L5-L6+L7</f>
-        <v>581828.00064500002</v>
+        <v>686750</v>
       </c>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B9" s="14" t="s">
-        <v>75</v>
+      <c r="B9" s="13" t="s">
+        <v>74</v>
       </c>
       <c r="L9" s="2">
-        <v>20397</v>
+        <v>22418</v>
       </c>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="13" t="s">
         <v>15</v>
       </c>
       <c r="L10" s="3">
         <f>+L8/L9</f>
-        <v>28.525175302495466</v>
+        <v>30.633865643679187</v>
       </c>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B11" s="15" t="s">
-        <v>121</v>
+      <c r="B11" s="14" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="13" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B13" s="13" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B14" s="13" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B13" s="14" t="s">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B15" s="12" t="s">
         <v>118</v>
-      </c>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B14" s="14" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B15" s="13" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -1170,13 +1169,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF8C5E95-EF9A-4AC5-BAAE-5351D0FD990D}">
-  <dimension ref="B1:EK111"/>
+  <dimension ref="B1:EK110"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="H45" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="J33" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="O82" sqref="O82"/>
+      <selection pane="bottomRight" activeCell="P46" sqref="M46:P46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1187,229 +1186,235 @@
     <col min="15" max="15" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:34" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C1" s="12">
+    <row r="1" spans="2:34" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C1" s="11">
         <v>44926</v>
       </c>
-      <c r="D1" s="12">
+      <c r="D1" s="11">
         <v>44651</v>
       </c>
-      <c r="E1" s="12">
+      <c r="E1" s="11">
         <v>44742</v>
       </c>
-      <c r="F1" s="12">
+      <c r="F1" s="11">
         <v>44834</v>
       </c>
-      <c r="G1" s="12">
+      <c r="G1" s="11">
         <v>45291</v>
       </c>
-      <c r="H1" s="12">
+      <c r="H1" s="11">
         <v>45016</v>
       </c>
-      <c r="I1" s="12">
+      <c r="I1" s="11">
         <v>45107</v>
       </c>
-      <c r="J1" s="12">
+      <c r="J1" s="11">
         <v>45199</v>
       </c>
-      <c r="K1" s="12">
+      <c r="K1" s="11">
         <v>45291</v>
       </c>
-      <c r="L1" s="12">
+      <c r="L1" s="11">
         <v>45382</v>
       </c>
-      <c r="M1" s="12">
+      <c r="M1" s="11">
         <v>45473</v>
       </c>
-      <c r="N1" s="12">
+      <c r="N1" s="11">
         <v>45565</v>
       </c>
-      <c r="O1" s="12">
+      <c r="O1" s="11">
         <v>45657</v>
       </c>
-      <c r="W1" s="12">
+      <c r="P1" s="11">
+        <v>45747</v>
+      </c>
+      <c r="W1" s="11">
         <v>45199</v>
       </c>
-      <c r="X1" s="12">
+      <c r="X1" s="11">
         <v>45565</v>
       </c>
     </row>
-    <row r="2" spans="2:34" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C2" s="9" t="s">
+    <row r="2" spans="2:34" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C2" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="M2" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="N2" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="O2" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="P2" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="S2" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="D2" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="J2" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="K2" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="L2" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="M2" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="N2" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="O2" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="S2" s="9" t="s">
+      <c r="T2" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="T2" s="9" t="s">
+      <c r="U2" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="U2" s="9" t="s">
+      <c r="V2" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="V2" s="9" t="s">
+      <c r="W2" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="W2" s="9" t="s">
+      <c r="X2" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="X2" s="9" t="s">
+      <c r="Y2" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="Y2" s="9" t="s">
+      <c r="Z2" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="Z2" s="9" t="s">
+      <c r="AA2" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="AA2" s="9" t="s">
+      <c r="AB2" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="AB2" s="9" t="s">
+      <c r="AC2" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="AC2" s="9" t="s">
+      <c r="AD2" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="AD2" s="9" t="s">
+      <c r="AE2" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="AE2" s="9" t="s">
+      <c r="AF2" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="AF2" s="9" t="s">
+      <c r="AG2" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="AG2" s="9" t="s">
+      <c r="AH2" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="AH2" s="9" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="3" spans="2:34" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="16" t="s">
-        <v>131</v>
-      </c>
-      <c r="W3" s="10">
+    </row>
+    <row r="3" spans="2:34" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="W3" s="9">
         <f>+W17</f>
         <v>12358</v>
       </c>
-      <c r="X3" s="10">
+      <c r="X3" s="9">
         <f>+X17</f>
         <v>13191</v>
       </c>
     </row>
-    <row r="4" spans="2:34" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="16" t="s">
-        <v>135</v>
-      </c>
-      <c r="W4" s="10">
+    <row r="4" spans="2:34" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="W4" s="9">
         <v>7346</v>
       </c>
-      <c r="X4" s="10">
+      <c r="X4" s="9">
         <v>8018</v>
       </c>
     </row>
-    <row r="5" spans="2:34" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="16" t="s">
+    <row r="5" spans="2:34" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="W5" s="9">
+        <v>1665</v>
+      </c>
+    </row>
+    <row r="6" spans="2:34" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="W6" s="9">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="7" spans="2:34" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="W5" s="10">
-        <v>1665</v>
-      </c>
-    </row>
-    <row r="6" spans="2:34" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="16" t="s">
-        <v>136</v>
-      </c>
-      <c r="W6" s="10">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="7" spans="2:34" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="W7" s="10">
+      <c r="W7" s="9">
         <v>321</v>
       </c>
     </row>
-    <row r="8" spans="2:34" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="W8" s="10">
+    <row r="8" spans="2:34" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="W8" s="9">
         <v>256</v>
       </c>
     </row>
-    <row r="9" spans="2:34" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="W9" s="18">
+    <row r="9" spans="2:34" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="W9" s="17">
         <f>+SUM(W3:W8)</f>
         <v>23446</v>
       </c>
     </row>
-    <row r="10" spans="2:34" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="2:34" s="8" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="11" spans="2:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B11" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10">
+        <v>82</v>
+      </c>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9">
         <v>525</v>
       </c>
-      <c r="L11" s="10">
+      <c r="L11" s="9">
         <v>500</v>
       </c>
-      <c r="M11" s="10">
+      <c r="M11" s="9">
         <v>491</v>
       </c>
-      <c r="N11" s="10">
+      <c r="N11" s="9">
         <v>507</v>
       </c>
-      <c r="O11" s="10">
+      <c r="O11" s="9">
         <v>524</v>
       </c>
       <c r="W11" s="2">
@@ -1422,25 +1427,25 @@
     </row>
     <row r="12" spans="2:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10">
+        <v>83</v>
+      </c>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9">
         <v>103</v>
       </c>
-      <c r="L12" s="10">
+      <c r="L12" s="9">
         <v>95</v>
       </c>
-      <c r="M12" s="10">
+      <c r="M12" s="9">
         <v>106</v>
       </c>
-      <c r="N12" s="10">
+      <c r="N12" s="9">
         <v>105</v>
       </c>
-      <c r="O12" s="10">
+      <c r="O12" s="9">
         <v>111</v>
       </c>
       <c r="W12" s="2">
@@ -1453,25 +1458,25 @@
     </row>
     <row r="13" spans="2:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="10">
+        <v>84</v>
+      </c>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9">
         <v>184</v>
       </c>
-      <c r="L13" s="10">
+      <c r="L13" s="9">
         <v>183</v>
       </c>
-      <c r="M13" s="10">
+      <c r="M13" s="9">
         <v>190</v>
       </c>
-      <c r="N13" s="10">
+      <c r="N13" s="9">
         <v>202</v>
       </c>
-      <c r="O13" s="10">
+      <c r="O13" s="9">
         <v>211</v>
       </c>
       <c r="W13" s="2">
@@ -1484,25 +1489,25 @@
     </row>
     <row r="14" spans="2:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B14" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10">
+        <v>85</v>
+      </c>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9">
         <v>230</v>
       </c>
-      <c r="L14" s="10">
+      <c r="L14" s="9">
         <v>213</v>
       </c>
-      <c r="M14" s="10">
+      <c r="M14" s="9">
         <v>222</v>
       </c>
-      <c r="N14" s="10">
+      <c r="N14" s="9">
         <v>230</v>
       </c>
-      <c r="O14" s="10">
+      <c r="O14" s="9">
         <v>242</v>
       </c>
       <c r="W14" s="2">
@@ -1515,25 +1520,25 @@
     </row>
     <row r="15" spans="2:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="10">
+        <v>86</v>
+      </c>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9">
         <v>1604</v>
       </c>
-      <c r="L15" s="10">
+      <c r="L15" s="9">
         <v>1561</v>
       </c>
-      <c r="M15" s="10">
+      <c r="M15" s="9">
         <v>1652</v>
       </c>
-      <c r="N15" s="10">
+      <c r="N15" s="9">
         <v>1649</v>
       </c>
-      <c r="O15" s="10">
+      <c r="O15" s="9">
         <v>1720</v>
       </c>
       <c r="W15" s="2">
@@ -1546,25 +1551,25 @@
     </row>
     <row r="16" spans="2:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="10">
+        <v>87</v>
+      </c>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9">
         <v>637</v>
       </c>
-      <c r="L16" s="10">
+      <c r="L16" s="9">
         <v>621</v>
       </c>
-      <c r="M16" s="10">
+      <c r="M16" s="9">
         <v>665</v>
       </c>
-      <c r="N16" s="10">
+      <c r="N16" s="9">
         <v>716</v>
       </c>
-      <c r="O16" s="10">
+      <c r="O16" s="9">
         <v>714</v>
       </c>
       <c r="W16" s="2">
@@ -1577,29 +1582,29 @@
     </row>
     <row r="17" spans="2:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B17" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="10">
+        <v>88</v>
+      </c>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9">
         <f>+SUM(K11:K16)</f>
         <v>3283</v>
       </c>
-      <c r="L17" s="10">
+      <c r="L17" s="9">
         <f>+SUM(L11:L16)</f>
         <v>3173</v>
       </c>
-      <c r="M17" s="10">
+      <c r="M17" s="9">
         <f>+SUM(M11:M16)</f>
         <v>3326</v>
       </c>
-      <c r="N17" s="10">
+      <c r="N17" s="9">
         <f>+SUM(N11:N16)</f>
         <v>3409</v>
       </c>
-      <c r="O17" s="10">
+      <c r="O17" s="9">
         <f>+SUM(O11:O16)</f>
         <v>3522</v>
       </c>
@@ -1613,26 +1618,26 @@
       </c>
     </row>
     <row r="18" spans="2:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="10">
+      <c r="B18" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9">
         <v>1646</v>
       </c>
-      <c r="L18" s="10">
+      <c r="L18" s="9">
         <v>1568</v>
       </c>
-      <c r="M18" s="10">
+      <c r="M18" s="9">
         <v>1647</v>
       </c>
-      <c r="N18" s="10">
+      <c r="N18" s="9">
         <v>1681</v>
       </c>
-      <c r="O18" s="10">
+      <c r="O18" s="9">
         <v>1742</v>
       </c>
       <c r="W18" s="2">
@@ -1644,26 +1649,26 @@
       </c>
     </row>
     <row r="19" spans="2:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="10">
+      <c r="B19" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9">
         <v>1636</v>
       </c>
-      <c r="L19" s="10">
+      <c r="L19" s="9">
         <v>1606</v>
       </c>
-      <c r="M19" s="10">
+      <c r="M19" s="9">
         <v>1680</v>
       </c>
-      <c r="N19" s="10">
+      <c r="N19" s="9">
         <v>1729</v>
       </c>
-      <c r="O19" s="10">
+      <c r="O19" s="9">
         <v>1779</v>
       </c>
       <c r="W19" s="2">
@@ -1675,37 +1680,37 @@
       </c>
     </row>
     <row r="20" spans="2:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="10"/>
-      <c r="K20" s="10"/>
-      <c r="L20" s="10"/>
-      <c r="M20" s="10"/>
-      <c r="N20" s="10"/>
-      <c r="O20" s="10"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="9"/>
+      <c r="O20" s="9"/>
     </row>
     <row r="21" spans="2:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B21" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="10"/>
+        <v>78</v>
+      </c>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
       <c r="K21" s="2">
         <v>25578</v>
       </c>
-      <c r="L21" s="10">
+      <c r="L21" s="9">
         <v>24502</v>
       </c>
-      <c r="M21" s="10">
+      <c r="M21" s="9">
         <v>26341</v>
       </c>
-      <c r="N21" s="10">
+      <c r="N21" s="9">
         <v>27378</v>
       </c>
-      <c r="O21" s="10">
+      <c r="O21" s="9">
         <v>28271</v>
       </c>
       <c r="W21" s="2">
@@ -1718,25 +1723,25 @@
     </row>
     <row r="22" spans="2:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B22" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="10"/>
+        <v>79</v>
+      </c>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
       <c r="K22" s="2">
         <v>44916</v>
       </c>
-      <c r="L22" s="10">
+      <c r="L22" s="9">
         <v>43493</v>
       </c>
-      <c r="M22" s="10">
+      <c r="M22" s="9">
         <v>46407</v>
       </c>
-      <c r="N22" s="10">
+      <c r="N22" s="9">
         <v>47890</v>
       </c>
-      <c r="O22" s="10">
+      <c r="O22" s="9">
         <v>49185</v>
       </c>
       <c r="W22" s="2">
@@ -1749,29 +1754,29 @@
     </row>
     <row r="23" spans="2:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B23" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="10"/>
-      <c r="J23" s="10"/>
-      <c r="K23" s="10">
+        <v>80</v>
+      </c>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9">
         <f t="shared" ref="K23:N23" si="1">+SUM(K21:K22)</f>
         <v>70494</v>
       </c>
-      <c r="L23" s="10">
+      <c r="L23" s="9">
         <f t="shared" si="1"/>
         <v>67995</v>
       </c>
-      <c r="M23" s="10">
+      <c r="M23" s="9">
         <f t="shared" si="1"/>
         <v>72748</v>
       </c>
-      <c r="N23" s="10">
+      <c r="N23" s="9">
         <f t="shared" si="1"/>
         <v>75268</v>
       </c>
-      <c r="O23" s="10">
+      <c r="O23" s="9">
         <f>+SUM(O21:O22)</f>
         <v>77456</v>
       </c>
@@ -1785,37 +1790,37 @@
       </c>
     </row>
     <row r="24" spans="2:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="G24" s="10"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="10"/>
-      <c r="J24" s="10"/>
-      <c r="K24" s="10"/>
-      <c r="L24" s="10"/>
-      <c r="M24" s="10"/>
-      <c r="N24" s="10"/>
-      <c r="O24" s="10"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="9"/>
+      <c r="M24" s="9"/>
+      <c r="N24" s="9"/>
+      <c r="O24" s="9"/>
     </row>
     <row r="25" spans="2:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B25" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="G25" s="10"/>
-      <c r="H25" s="10"/>
-      <c r="I25" s="10"/>
-      <c r="J25" s="10"/>
-      <c r="K25" s="10">
+        <v>89</v>
+      </c>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9">
         <v>3986</v>
       </c>
-      <c r="L25" s="10">
+      <c r="L25" s="9">
         <v>4048</v>
       </c>
-      <c r="M25" s="10">
+      <c r="M25" s="9">
         <v>4096</v>
       </c>
-      <c r="N25" s="10">
+      <c r="N25" s="9">
         <v>4170</v>
       </c>
-      <c r="O25" s="10"/>
+      <c r="O25" s="9"/>
       <c r="W25" s="2">
         <v>3986</v>
       </c>
@@ -1826,25 +1831,25 @@
     </row>
     <row r="26" spans="2:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B26" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="G26" s="10"/>
-      <c r="H26" s="10"/>
-      <c r="I26" s="10"/>
-      <c r="J26" s="10"/>
-      <c r="K26" s="10">
+        <v>90</v>
+      </c>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9">
         <v>4481</v>
       </c>
-      <c r="L26" s="10">
+      <c r="L26" s="9">
         <v>4549</v>
       </c>
-      <c r="M26" s="10">
+      <c r="M26" s="9">
         <v>4608</v>
       </c>
-      <c r="N26" s="10">
+      <c r="N26" s="9">
         <v>4700</v>
       </c>
-      <c r="O26" s="10"/>
+      <c r="O26" s="9"/>
       <c r="W26" s="2">
         <v>4481</v>
       </c>
@@ -1854,15 +1859,15 @@
       </c>
     </row>
     <row r="27" spans="2:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="G27" s="10"/>
-      <c r="H27" s="10"/>
-      <c r="I27" s="10"/>
-      <c r="J27" s="10"/>
-      <c r="K27" s="10"/>
-      <c r="L27" s="10"/>
-      <c r="M27" s="10"/>
-      <c r="N27" s="10"/>
-      <c r="O27" s="10"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c r="L27" s="9"/>
+      <c r="M27" s="9"/>
+      <c r="N27" s="9"/>
+      <c r="O27" s="9"/>
       <c r="W27" s="2">
         <f>+W17*1000/W26</f>
         <v>2757.8665476456149</v>
@@ -1874,138 +1879,153 @@
     </row>
     <row r="28" spans="2:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B28" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="G28" s="10"/>
-      <c r="H28" s="10"/>
-      <c r="I28" s="10"/>
-      <c r="J28" s="10"/>
-      <c r="K28" s="10">
+        <v>75</v>
+      </c>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9">
         <v>3915</v>
       </c>
-      <c r="L28" s="10">
+      <c r="L28" s="9">
         <v>4033</v>
       </c>
-      <c r="M28" s="10">
+      <c r="M28" s="9">
         <v>3967</v>
       </c>
-      <c r="N28" s="10">
+      <c r="N28" s="9">
         <v>4199</v>
       </c>
-      <c r="O28" s="10">
+      <c r="O28" s="9">
         <v>4208</v>
+      </c>
+      <c r="P28" s="2">
+        <v>4399</v>
       </c>
     </row>
     <row r="29" spans="2:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B29" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="G29" s="10"/>
-      <c r="H29" s="10"/>
-      <c r="I29" s="10"/>
-      <c r="J29" s="10"/>
-      <c r="K29" s="10">
+        <v>76</v>
+      </c>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9">
         <v>4356</v>
       </c>
-      <c r="L29" s="10">
+      <c r="L29" s="9">
         <v>4259</v>
       </c>
-      <c r="M29" s="10">
+      <c r="M29" s="9">
         <v>4489</v>
       </c>
-      <c r="N29" s="10">
+      <c r="N29" s="9">
         <v>4610</v>
       </c>
-      <c r="O29" s="10">
+      <c r="O29" s="9">
         <v>4745</v>
+      </c>
+      <c r="P29" s="2">
+        <v>4701</v>
       </c>
     </row>
     <row r="30" spans="2:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B30" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="G30" s="10"/>
-      <c r="H30" s="10"/>
-      <c r="I30" s="10"/>
-      <c r="J30" s="10"/>
-      <c r="K30" s="10">
+        <v>77</v>
+      </c>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9">
         <v>3019</v>
       </c>
-      <c r="L30" s="10">
+      <c r="L30" s="9">
         <v>2984</v>
       </c>
-      <c r="M30" s="10">
+      <c r="M30" s="9">
         <v>3194</v>
       </c>
-      <c r="N30" s="10">
+      <c r="N30" s="9">
         <v>3468</v>
       </c>
-      <c r="O30" s="10">
+      <c r="O30" s="9">
         <v>3442</v>
+      </c>
+      <c r="P30" s="2">
+        <v>3291</v>
       </c>
     </row>
     <row r="31" spans="2:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B31" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G31" s="10"/>
-      <c r="H31" s="10"/>
-      <c r="I31" s="10"/>
-      <c r="J31" s="10"/>
-      <c r="K31" s="10">
+      <c r="G31" s="9"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9">
         <v>692</v>
       </c>
-      <c r="L31" s="10">
+      <c r="L31" s="9">
         <v>756</v>
       </c>
-      <c r="M31" s="10">
+      <c r="M31" s="9">
         <v>780</v>
       </c>
-      <c r="N31" s="10">
+      <c r="N31" s="9">
         <v>969</v>
       </c>
-      <c r="O31" s="10">
+      <c r="O31" s="9">
         <v>912</v>
+      </c>
+      <c r="P31" s="2">
+        <v>937</v>
       </c>
     </row>
     <row r="32" spans="2:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B32" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="G32" s="10"/>
-      <c r="H32" s="10"/>
-      <c r="I32" s="10"/>
-      <c r="J32" s="10"/>
-      <c r="K32" s="10">
+        <v>81</v>
+      </c>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9">
         <v>-3348</v>
       </c>
-      <c r="L32" s="10">
+      <c r="L32" s="9">
         <v>-3257</v>
       </c>
-      <c r="M32" s="10">
+      <c r="M32" s="9">
         <v>-3530</v>
       </c>
-      <c r="N32" s="10">
+      <c r="N32" s="9">
         <v>-3629</v>
       </c>
-      <c r="O32" s="10">
+      <c r="O32" s="9">
         <v>-3797</v>
       </c>
+      <c r="P32" s="2">
+        <v>-3734</v>
+      </c>
     </row>
     <row r="33" spans="2:141" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="G33" s="10"/>
-      <c r="H33" s="10"/>
-      <c r="I33" s="10"/>
-      <c r="J33" s="10"/>
-      <c r="K33" s="10"/>
-      <c r="L33" s="10"/>
-      <c r="M33" s="10"/>
-      <c r="N33" s="10"/>
-      <c r="O33" s="10"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+      <c r="L33" s="9"/>
+      <c r="M33" s="9"/>
+      <c r="N33" s="9"/>
+      <c r="O33" s="9"/>
     </row>
     <row r="34" spans="2:141" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B34" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C34" s="4">
         <v>7059</v>
@@ -2046,10 +2066,10 @@
       <c r="O34" s="4">
         <v>9510</v>
       </c>
-      <c r="Q34" s="7">
-        <f t="shared" ref="Q34:Q39" si="2">(X34/S34)^(1/6)-1</f>
-        <v>7.7339517209695785E-2</v>
-      </c>
+      <c r="P34" s="4">
+        <v>9594</v>
+      </c>
+      <c r="Q34" s="7"/>
       <c r="S34" s="4">
         <v>22977</v>
       </c>
@@ -2069,49 +2089,49 @@
         <v>35926</v>
       </c>
       <c r="Y34" s="4">
-        <f t="shared" ref="Y34:AA34" si="3">+X34*1.08</f>
-        <v>38800.080000000002</v>
+        <f>+X34*1.1</f>
+        <v>39518.600000000006</v>
       </c>
       <c r="Z34" s="4">
-        <f t="shared" si="3"/>
-        <v>41904.086400000007</v>
+        <f t="shared" ref="Z34:AH34" si="2">+Y34*1.1</f>
+        <v>43470.460000000006</v>
       </c>
       <c r="AA34" s="4">
-        <f t="shared" si="3"/>
-        <v>45256.413312000012</v>
+        <f t="shared" si="2"/>
+        <v>47817.506000000008</v>
       </c>
       <c r="AB34" s="4">
-        <f>+AA34*1.05</f>
-        <v>47519.233977600015</v>
+        <f t="shared" si="2"/>
+        <v>52599.256600000015</v>
       </c>
       <c r="AC34" s="4">
-        <f t="shared" ref="AC34:AE34" si="4">+AB34*1.05</f>
-        <v>49895.19567648002</v>
+        <f t="shared" si="2"/>
+        <v>57859.182260000023</v>
       </c>
       <c r="AD34" s="4">
-        <f t="shared" si="4"/>
-        <v>52389.955460304023</v>
+        <f t="shared" si="2"/>
+        <v>63645.100486000032</v>
       </c>
       <c r="AE34" s="4">
-        <f t="shared" si="4"/>
-        <v>55009.453233319226</v>
+        <f t="shared" si="2"/>
+        <v>70009.61053460004</v>
       </c>
       <c r="AF34" s="4">
-        <f>+AE34*1.03</f>
-        <v>56659.736830318805</v>
+        <f t="shared" si="2"/>
+        <v>77010.571588060047</v>
       </c>
       <c r="AG34" s="4">
-        <f t="shared" ref="AG34:AH34" si="5">+AF34*1.03</f>
-        <v>58359.528935228373</v>
+        <f t="shared" si="2"/>
+        <v>84711.628746866059</v>
       </c>
       <c r="AH34" s="4">
-        <f t="shared" si="5"/>
-        <v>60110.314803285226</v>
+        <f t="shared" si="2"/>
+        <v>93182.791621552678</v>
       </c>
     </row>
     <row r="35" spans="2:141" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B35" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C35" s="2">
         <v>1125</v>
@@ -2152,10 +2172,10 @@
       <c r="O35" s="2">
         <v>1813</v>
       </c>
-      <c r="Q35" s="7">
-        <f t="shared" si="2"/>
-        <v>0.10483672295538171</v>
-      </c>
+      <c r="P35" s="2">
+        <v>1657</v>
+      </c>
+      <c r="Q35" s="7"/>
       <c r="S35" s="2">
         <v>3444</v>
       </c>
@@ -2175,49 +2195,49 @@
         <v>6264</v>
       </c>
       <c r="Y35" s="2">
-        <f t="shared" ref="Y35:AA35" si="6">+X35*1.08</f>
-        <v>6765.1200000000008</v>
+        <f>+Y34*0.17</f>
+        <v>6718.1620000000012</v>
       </c>
       <c r="Z35" s="2">
-        <f t="shared" si="6"/>
-        <v>7306.3296000000009</v>
+        <f t="shared" ref="Z35:AH35" si="3">+Z34*0.17</f>
+        <v>7389.9782000000014</v>
       </c>
       <c r="AA35" s="2">
-        <f t="shared" si="6"/>
-        <v>7890.8359680000012</v>
+        <f t="shared" si="3"/>
+        <v>8128.9760200000019</v>
       </c>
       <c r="AB35" s="2">
-        <f>+AA35*1.05</f>
-        <v>8285.3777664000008</v>
+        <f t="shared" si="3"/>
+        <v>8941.8736220000028</v>
       </c>
       <c r="AC35" s="2">
-        <f t="shared" ref="AC35:AE35" si="7">+AB35*1.05</f>
-        <v>8699.6466547200016</v>
+        <f t="shared" si="3"/>
+        <v>9836.0609842000049</v>
       </c>
       <c r="AD35" s="2">
-        <f t="shared" si="7"/>
-        <v>9134.6289874560025</v>
+        <f t="shared" si="3"/>
+        <v>10819.667082620006</v>
       </c>
       <c r="AE35" s="2">
-        <f t="shared" si="7"/>
-        <v>9591.3604368288034</v>
+        <f t="shared" si="3"/>
+        <v>11901.633790882008</v>
       </c>
       <c r="AF35" s="2">
-        <f>+AE35*1.03</f>
-        <v>9879.1012499336684</v>
+        <f t="shared" si="3"/>
+        <v>13091.797169970208</v>
       </c>
       <c r="AG35" s="2">
-        <f t="shared" ref="AG35:AH35" si="8">+AF35*1.03</f>
-        <v>10175.474287431678</v>
+        <f t="shared" si="3"/>
+        <v>14400.976886967232</v>
       </c>
       <c r="AH35" s="2">
-        <f t="shared" si="8"/>
-        <v>10480.738516054629</v>
+        <f t="shared" si="3"/>
+        <v>15841.074575663957</v>
       </c>
     </row>
     <row r="36" spans="2:141" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B36" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C36" s="2">
         <v>280</v>
@@ -2258,10 +2278,10 @@
       <c r="O36" s="2">
         <v>306</v>
       </c>
-      <c r="Q36" s="7">
-        <f t="shared" si="2"/>
-        <v>5.9157111933997752E-2</v>
-      </c>
+      <c r="P36" s="2">
+        <v>381</v>
+      </c>
+      <c r="Q36" s="7"/>
       <c r="S36" s="2">
         <v>1105</v>
       </c>
@@ -2281,49 +2301,49 @@
         <v>1560</v>
       </c>
       <c r="Y36" s="2">
-        <f t="shared" ref="Y36:AA36" si="9">+X36*1.05</f>
+        <f t="shared" ref="Y36" si="4">+X36*1.05</f>
         <v>1638</v>
       </c>
       <c r="Z36" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="Z36" si="5">+Y36*1.05</f>
         <v>1719.9</v>
       </c>
       <c r="AA36" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="AA36" si="6">+Z36*1.05</f>
         <v>1805.8950000000002</v>
       </c>
       <c r="AB36" s="2">
-        <f>+AA36*1.03</f>
-        <v>1860.0718500000003</v>
+        <f t="shared" ref="AB36" si="7">+AA36*1.05</f>
+        <v>1896.1897500000002</v>
       </c>
       <c r="AC36" s="2">
-        <f t="shared" ref="AC36:AE36" si="10">+AB36*1.03</f>
-        <v>1915.8740055000003</v>
+        <f t="shared" ref="AC36" si="8">+AB36*1.05</f>
+        <v>1990.9992375000004</v>
       </c>
       <c r="AD36" s="2">
-        <f t="shared" si="10"/>
-        <v>1973.3502256650004</v>
+        <f t="shared" ref="AD36" si="9">+AC36*1.05</f>
+        <v>2090.5491993750006</v>
       </c>
       <c r="AE36" s="2">
-        <f t="shared" si="10"/>
-        <v>2032.5507324349505</v>
+        <f t="shared" ref="AE36" si="10">+AD36*1.05</f>
+        <v>2195.0766593437506</v>
       </c>
       <c r="AF36" s="2">
-        <f>+AE36*1.01</f>
-        <v>2052.8762397593</v>
+        <f t="shared" ref="AF36" si="11">+AE36*1.05</f>
+        <v>2304.8304923109381</v>
       </c>
       <c r="AG36" s="2">
-        <f t="shared" ref="AG36:AH36" si="11">+AF36*1.01</f>
-        <v>2073.4050021568928</v>
+        <f t="shared" ref="AG36" si="12">+AF36*1.05</f>
+        <v>2420.072016926485</v>
       </c>
       <c r="AH36" s="2">
-        <f t="shared" si="11"/>
-        <v>2094.139052178462</v>
+        <f t="shared" ref="AH36" si="13">+AG36*1.05</f>
+        <v>2541.0756177728094</v>
       </c>
     </row>
     <row r="37" spans="2:141" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B37" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C37" s="2">
         <v>190</v>
@@ -2364,10 +2384,10 @@
       <c r="O37" s="2">
         <v>207</v>
       </c>
-      <c r="Q37" s="7">
-        <f t="shared" si="2"/>
-        <v>1.2761978926702833E-2</v>
-      </c>
+      <c r="P37" s="2">
+        <v>224</v>
+      </c>
+      <c r="Q37" s="7"/>
       <c r="S37" s="2">
         <v>721</v>
       </c>
@@ -2387,49 +2407,49 @@
         <v>778</v>
       </c>
       <c r="Y37" s="2">
-        <f t="shared" ref="Y37:AE37" si="12">+X37*1.01</f>
-        <v>785.78</v>
+        <f>+Y34*0.025</f>
+        <v>987.96500000000015</v>
       </c>
       <c r="Z37" s="2">
-        <f t="shared" si="12"/>
-        <v>793.63779999999997</v>
+        <f t="shared" ref="Z37:AH37" si="14">+Z34*0.025</f>
+        <v>1086.7615000000003</v>
       </c>
       <c r="AA37" s="2">
-        <f t="shared" si="12"/>
-        <v>801.57417799999996</v>
+        <f t="shared" si="14"/>
+        <v>1195.4376500000003</v>
       </c>
       <c r="AB37" s="2">
-        <f t="shared" si="12"/>
-        <v>809.58991977999995</v>
+        <f t="shared" si="14"/>
+        <v>1314.9814150000004</v>
       </c>
       <c r="AC37" s="2">
-        <f t="shared" si="12"/>
-        <v>817.68581897779995</v>
+        <f t="shared" si="14"/>
+        <v>1446.4795565000006</v>
       </c>
       <c r="AD37" s="2">
-        <f t="shared" si="12"/>
-        <v>825.862677167578</v>
+        <f t="shared" si="14"/>
+        <v>1591.1275121500009</v>
       </c>
       <c r="AE37" s="2">
-        <f t="shared" si="12"/>
-        <v>834.12130393925383</v>
+        <f t="shared" si="14"/>
+        <v>1750.2402633650011</v>
       </c>
       <c r="AF37" s="2">
-        <f>+AE37*1.005</f>
-        <v>838.29191045895004</v>
+        <f t="shared" si="14"/>
+        <v>1925.2642897015012</v>
       </c>
       <c r="AG37" s="2">
-        <f t="shared" ref="AG37:AH37" si="13">+AF37*1.005</f>
-        <v>842.48337001124469</v>
+        <f t="shared" si="14"/>
+        <v>2117.7907186716516</v>
       </c>
       <c r="AH37" s="2">
-        <f t="shared" si="13"/>
-        <v>846.6957868613008</v>
+        <f t="shared" si="14"/>
+        <v>2329.569790538817</v>
       </c>
     </row>
     <row r="38" spans="2:141" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B38" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C38" s="2">
         <v>100</v>
@@ -2470,10 +2490,10 @@
       <c r="O38" s="2">
         <v>143</v>
       </c>
-      <c r="Q38" s="7">
-        <f t="shared" si="2"/>
-        <v>5.7514454224082856E-2</v>
-      </c>
+      <c r="P38" s="2">
+        <v>173</v>
+      </c>
+      <c r="Q38" s="7"/>
       <c r="S38" s="2">
         <v>454</v>
       </c>
@@ -2493,49 +2513,49 @@
         <v>635</v>
       </c>
       <c r="Y38" s="2">
-        <f t="shared" ref="Y38:AA38" si="14">+X38*1.06</f>
-        <v>673.1</v>
+        <f>+Y34*0.02</f>
+        <v>790.37200000000018</v>
       </c>
       <c r="Z38" s="2">
-        <f t="shared" si="14"/>
-        <v>713.4860000000001</v>
+        <f t="shared" ref="Z38:AH38" si="15">+Z34*0.02</f>
+        <v>869.40920000000017</v>
       </c>
       <c r="AA38" s="2">
-        <f t="shared" si="14"/>
-        <v>756.29516000000012</v>
+        <f t="shared" si="15"/>
+        <v>956.35012000000017</v>
       </c>
       <c r="AB38" s="2">
-        <f>+AA38*1.04</f>
-        <v>786.5469664000002</v>
+        <f t="shared" si="15"/>
+        <v>1051.9851320000002</v>
       </c>
       <c r="AC38" s="2">
-        <f t="shared" ref="AC38:AE38" si="15">+AB38*1.04</f>
-        <v>818.00884505600027</v>
+        <f t="shared" si="15"/>
+        <v>1157.1836452000005</v>
       </c>
       <c r="AD38" s="2">
         <f t="shared" si="15"/>
-        <v>850.72919885824035</v>
+        <v>1272.9020097200007</v>
       </c>
       <c r="AE38" s="2">
         <f t="shared" si="15"/>
-        <v>884.75836681256999</v>
+        <v>1400.1922106920008</v>
       </c>
       <c r="AF38" s="2">
-        <f>+AE38*1.02</f>
-        <v>902.4535341488214</v>
+        <f t="shared" si="15"/>
+        <v>1540.2114317612011</v>
       </c>
       <c r="AG38" s="2">
-        <f t="shared" ref="AG38:AH38" si="16">+AF38*1.02</f>
-        <v>920.50260483179784</v>
+        <f t="shared" si="15"/>
+        <v>1694.2325749373213</v>
       </c>
       <c r="AH38" s="2">
-        <f t="shared" si="16"/>
-        <v>938.91265692843376</v>
+        <f t="shared" si="15"/>
+        <v>1863.6558324310536</v>
       </c>
     </row>
     <row r="39" spans="2:141" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B39" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C39" s="2">
         <v>242</v>
@@ -2576,10 +2596,10 @@
       <c r="O39" s="2">
         <v>481</v>
       </c>
-      <c r="Q39" s="7">
-        <f t="shared" si="2"/>
-        <v>4.948023987543948E-2</v>
-      </c>
+      <c r="P39" s="2">
+        <v>419</v>
+      </c>
+      <c r="Q39" s="7"/>
       <c r="S39" s="2">
         <v>1196</v>
       </c>
@@ -2599,291 +2619,299 @@
         <v>1598</v>
       </c>
       <c r="Y39" s="2">
-        <f t="shared" ref="Y39:AA39" si="17">+X39*1.05</f>
+        <f t="shared" ref="Y39" si="16">+X39*1.05</f>
         <v>1677.9</v>
       </c>
       <c r="Z39" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" ref="Z39" si="17">+Y39*1.05</f>
         <v>1761.7950000000001</v>
       </c>
       <c r="AA39" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" ref="AA39" si="18">+Z39*1.05</f>
         <v>1849.8847500000002</v>
       </c>
       <c r="AB39" s="2">
-        <f>+AA39*1.03</f>
-        <v>1905.3812925000002</v>
+        <f t="shared" ref="AB39" si="19">+AA39*1.05</f>
+        <v>1942.3789875000002</v>
       </c>
       <c r="AC39" s="2">
-        <f t="shared" ref="AC39:AE39" si="18">+AB39*1.03</f>
-        <v>1962.5427312750003</v>
+        <f t="shared" ref="AC39" si="20">+AB39*1.05</f>
+        <v>2039.4979368750003</v>
       </c>
       <c r="AD39" s="2">
-        <f t="shared" si="18"/>
-        <v>2021.4190132132503</v>
+        <f t="shared" ref="AD39" si="21">+AC39*1.05</f>
+        <v>2141.4728337187503</v>
       </c>
       <c r="AE39" s="2">
-        <f t="shared" si="18"/>
-        <v>2082.0615836096481</v>
+        <f t="shared" ref="AE39" si="22">+AD39*1.05</f>
+        <v>2248.546475404688</v>
       </c>
       <c r="AF39" s="2">
-        <f>+AE39*1.02</f>
-        <v>2123.7028152818411</v>
+        <f t="shared" ref="AF39" si="23">+AE39*1.05</f>
+        <v>2360.9737991749225</v>
       </c>
       <c r="AG39" s="2">
-        <f t="shared" ref="AG39:AH39" si="19">+AF39*1.02</f>
-        <v>2166.1768715874782</v>
+        <f t="shared" ref="AG39" si="24">+AF39*1.05</f>
+        <v>2479.0224891336688</v>
       </c>
       <c r="AH39" s="2">
-        <f t="shared" si="19"/>
-        <v>2209.5004090192278</v>
+        <f t="shared" ref="AH39" si="25">+AG39*1.05</f>
+        <v>2602.9736135903522</v>
       </c>
     </row>
     <row r="40" spans="2:141" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B40" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C40" s="2">
-        <f t="shared" ref="C40:O40" si="20">+SUM(C35:C39)</f>
+        <f t="shared" ref="C40:O40" si="26">+SUM(C35:C39)</f>
         <v>1937</v>
       </c>
       <c r="D40" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>2180</v>
       </c>
       <c r="E40" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>2180</v>
       </c>
       <c r="F40" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>2471</v>
       </c>
       <c r="G40" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>2289</v>
       </c>
       <c r="H40" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>2415</v>
       </c>
       <c r="I40" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>2407</v>
       </c>
       <c r="J40" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>2683</v>
       </c>
       <c r="K40" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>2424</v>
       </c>
       <c r="L40" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>2742</v>
       </c>
       <c r="M40" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>2685</v>
       </c>
       <c r="N40" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>2984</v>
       </c>
       <c r="O40" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>2950</v>
       </c>
+      <c r="P40" s="2">
+        <f t="shared" ref="P40" si="27">+SUM(P35:P39)</f>
+        <v>2854</v>
+      </c>
       <c r="S40" s="2">
-        <f t="shared" ref="S40:AH40" si="21">+SUM(S35:S39)</f>
+        <f t="shared" ref="S40:AH40" si="28">+SUM(S35:S39)</f>
         <v>6920</v>
       </c>
       <c r="T40" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="28"/>
         <v>6987</v>
       </c>
       <c r="U40" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="28"/>
         <v>7494</v>
       </c>
       <c r="V40" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="28"/>
         <v>8768</v>
       </c>
       <c r="W40" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="28"/>
         <v>9783</v>
       </c>
       <c r="X40" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="28"/>
         <v>10835</v>
       </c>
       <c r="Y40" s="2">
-        <f t="shared" si="21"/>
-        <v>11539.900000000001</v>
+        <f t="shared" si="28"/>
+        <v>11812.398999999999</v>
       </c>
       <c r="Z40" s="2">
-        <f t="shared" si="21"/>
-        <v>12295.148400000002</v>
+        <f t="shared" si="28"/>
+        <v>12827.843900000002</v>
       </c>
       <c r="AA40" s="2">
-        <f t="shared" si="21"/>
-        <v>13104.485056000001</v>
+        <f t="shared" si="28"/>
+        <v>13936.543540000002</v>
       </c>
       <c r="AB40" s="2">
-        <f t="shared" si="21"/>
-        <v>13646.967795080001</v>
+        <f t="shared" si="28"/>
+        <v>15147.408906500003</v>
       </c>
       <c r="AC40" s="2">
-        <f t="shared" si="21"/>
-        <v>14213.7580555288</v>
+        <f t="shared" si="28"/>
+        <v>16470.221360275005</v>
       </c>
       <c r="AD40" s="2">
-        <f t="shared" si="21"/>
-        <v>14805.990102360071</v>
+        <f t="shared" si="28"/>
+        <v>17915.718637583759</v>
       </c>
       <c r="AE40" s="2">
-        <f t="shared" si="21"/>
-        <v>15424.852423625225</v>
+        <f t="shared" si="28"/>
+        <v>19495.68939968745</v>
       </c>
       <c r="AF40" s="2">
-        <f t="shared" si="21"/>
-        <v>15796.42574958258</v>
+        <f t="shared" si="28"/>
+        <v>21223.077182918765</v>
       </c>
       <c r="AG40" s="2">
-        <f t="shared" si="21"/>
-        <v>16178.042136019092</v>
+        <f t="shared" si="28"/>
+        <v>23112.094686636359</v>
       </c>
       <c r="AH40" s="2">
-        <f t="shared" si="21"/>
-        <v>16569.986421042053</v>
+        <f t="shared" si="28"/>
+        <v>25178.34942999699</v>
       </c>
     </row>
     <row r="41" spans="2:141" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B41" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C41" s="2">
-        <f t="shared" ref="C41:O41" si="22">+C34-C40</f>
+        <f t="shared" ref="C41:O41" si="29">+C34-C40</f>
         <v>5122</v>
       </c>
       <c r="D41" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="29"/>
         <v>5009</v>
       </c>
       <c r="E41" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="29"/>
         <v>5095</v>
       </c>
       <c r="F41" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="29"/>
         <v>5316</v>
       </c>
       <c r="G41" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="29"/>
         <v>5647</v>
       </c>
       <c r="H41" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="29"/>
         <v>5570</v>
       </c>
       <c r="I41" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="29"/>
         <v>5716</v>
       </c>
       <c r="J41" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="29"/>
         <v>5926</v>
       </c>
       <c r="K41" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="29"/>
         <v>6210</v>
       </c>
       <c r="L41" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="29"/>
         <v>6033</v>
       </c>
       <c r="M41" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="29"/>
         <v>6215</v>
       </c>
       <c r="N41" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="29"/>
         <v>6633</v>
       </c>
       <c r="O41" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="29"/>
         <v>6560</v>
       </c>
+      <c r="P41" s="2">
+        <f t="shared" ref="P41" si="30">+P34-P40</f>
+        <v>6740</v>
+      </c>
       <c r="S41" s="2">
-        <f t="shared" ref="S41:AH41" si="23">+S34-S40</f>
+        <f t="shared" ref="S41:AH41" si="31">+S34-S40</f>
         <v>16057</v>
       </c>
       <c r="T41" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="31"/>
         <v>14859</v>
       </c>
       <c r="U41" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="31"/>
         <v>16611</v>
       </c>
       <c r="V41" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="31"/>
         <v>20542</v>
       </c>
       <c r="W41" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="31"/>
         <v>22870</v>
       </c>
       <c r="X41" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="31"/>
         <v>25091</v>
       </c>
       <c r="Y41" s="2">
-        <f t="shared" si="23"/>
-        <v>27260.18</v>
+        <f t="shared" si="31"/>
+        <v>27706.201000000008</v>
       </c>
       <c r="Z41" s="2">
-        <f t="shared" si="23"/>
-        <v>29608.938000000006</v>
+        <f t="shared" si="31"/>
+        <v>30642.616100000007</v>
       </c>
       <c r="AA41" s="2">
-        <f t="shared" si="23"/>
-        <v>32151.92825600001</v>
+        <f t="shared" si="31"/>
+        <v>33880.96246000001</v>
       </c>
       <c r="AB41" s="2">
-        <f t="shared" si="23"/>
-        <v>33872.266182520012</v>
+        <f t="shared" si="31"/>
+        <v>37451.847693500014</v>
       </c>
       <c r="AC41" s="2">
-        <f t="shared" si="23"/>
-        <v>35681.437620951219</v>
+        <f t="shared" si="31"/>
+        <v>41388.960899725018</v>
       </c>
       <c r="AD41" s="2">
-        <f t="shared" si="23"/>
-        <v>37583.965357943955</v>
+        <f t="shared" si="31"/>
+        <v>45729.381848416277</v>
       </c>
       <c r="AE41" s="2">
-        <f t="shared" si="23"/>
-        <v>39584.600809693999</v>
+        <f t="shared" si="31"/>
+        <v>50513.921134912591</v>
       </c>
       <c r="AF41" s="2">
-        <f t="shared" si="23"/>
-        <v>40863.311080736225</v>
+        <f t="shared" si="31"/>
+        <v>55787.494405141282</v>
       </c>
       <c r="AG41" s="2">
-        <f t="shared" si="23"/>
-        <v>42181.486799209277</v>
+        <f t="shared" si="31"/>
+        <v>61599.5340602297</v>
       </c>
       <c r="AH41" s="2">
-        <f t="shared" si="23"/>
-        <v>43540.328382243169</v>
+        <f t="shared" si="31"/>
+        <v>68004.442191555689</v>
       </c>
     </row>
     <row r="42" spans="2:141" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B42" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C42" s="2">
         <v>-134</v>
@@ -2924,10 +2952,10 @@
       <c r="O42" s="2">
         <v>182</v>
       </c>
-      <c r="Q42" s="7">
-        <f>(X42/S42)^(1/6)-1</f>
-        <v>3.1229045342544559E-2</v>
-      </c>
+      <c r="P42" s="2">
+        <v>-158</v>
+      </c>
+      <c r="Q42" s="7"/>
       <c r="S42" s="2">
         <v>-533</v>
       </c>
@@ -2948,43 +2976,43 @@
       </c>
       <c r="Y42" s="2">
         <f>+Y34*(1-0.02)-Y34</f>
-        <v>-776.00160000000324</v>
+        <v>-790.37200000000303</v>
       </c>
       <c r="Z42" s="2">
-        <f t="shared" ref="Z42:AG42" si="24">+Z34*(1-0.02)-Z34</f>
-        <v>-838.08172799999738</v>
+        <f t="shared" ref="Z42:AG42" si="32">+Z34*(1-0.02)-Z34</f>
+        <v>-869.40920000000187</v>
       </c>
       <c r="AA42" s="2">
-        <f t="shared" si="24"/>
-        <v>-905.12826624000445</v>
+        <f t="shared" si="32"/>
+        <v>-956.35012000000279</v>
       </c>
       <c r="AB42" s="2">
-        <f t="shared" si="24"/>
-        <v>-950.38467955200031</v>
+        <f t="shared" si="32"/>
+        <v>-1051.9851320000016</v>
       </c>
       <c r="AC42" s="2">
-        <f t="shared" si="24"/>
-        <v>-997.90391352960432</v>
+        <f t="shared" si="32"/>
+        <v>-1157.1836451999989</v>
       </c>
       <c r="AD42" s="2">
-        <f t="shared" si="24"/>
-        <v>-1047.7991092060838</v>
+        <f t="shared" si="32"/>
+        <v>-1272.9020097200046</v>
       </c>
       <c r="AE42" s="2">
-        <f t="shared" si="24"/>
-        <v>-1100.1890646663887</v>
+        <f t="shared" si="32"/>
+        <v>-1400.1922106919956</v>
       </c>
       <c r="AF42" s="2">
-        <f t="shared" si="24"/>
-        <v>-1133.194736606376</v>
+        <f t="shared" si="32"/>
+        <v>-1540.2114317611995</v>
       </c>
       <c r="AG42" s="2">
-        <f t="shared" si="24"/>
-        <v>-1167.1905787045689</v>
+        <f t="shared" si="32"/>
+        <v>-1694.2325749373267</v>
       </c>
       <c r="AH42" s="2">
         <f>+AH34*(1-0.02)-AH34</f>
-        <v>-1202.2062960657058</v>
+        <v>-1863.6558324310608</v>
       </c>
     </row>
     <row r="43" spans="2:141" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -3030,10 +3058,10 @@
       <c r="O43" s="2">
         <v>148</v>
       </c>
-      <c r="Q43" s="7">
-        <f>(X43/S43)^(1/6)-1</f>
-        <v>0.14995352870172618</v>
-      </c>
+      <c r="P43" s="2">
+        <v>161</v>
+      </c>
+      <c r="Q43" s="7"/>
       <c r="S43" s="2">
         <v>416</v>
       </c>
@@ -3057,45 +3085,45 @@
         <v>990.86</v>
       </c>
       <c r="Z43" s="2">
-        <f>+Y57*0.05</f>
-        <v>1028.701536</v>
+        <f>+Y56*0.05</f>
+        <v>1045.9675600000003</v>
       </c>
       <c r="AA43" s="2">
-        <f t="shared" ref="AA43:AH43" si="25">+Z57*0.05</f>
-        <v>2220.6838483200004</v>
+        <f t="shared" ref="AA43:AH43" si="33">+Z56*0.05</f>
+        <v>2278.7345384000005</v>
       </c>
       <c r="AB43" s="2">
-        <f t="shared" si="25"/>
-        <v>3559.3832018432004</v>
+        <f t="shared" si="33"/>
+        <v>3686.8684135360004</v>
       </c>
       <c r="AC43" s="2">
-        <f t="shared" si="25"/>
-        <v>5018.6337900356493</v>
+        <f t="shared" si="33"/>
+        <v>5290.3376525374406</v>
       </c>
       <c r="AD43" s="2">
-        <f t="shared" si="25"/>
-        <v>6606.7204899339404</v>
+        <f t="shared" si="33"/>
+        <v>7111.2222488199395</v>
       </c>
       <c r="AE43" s="2">
-        <f t="shared" si="25"/>
-        <v>8332.435959480812</v>
+        <f t="shared" si="33"/>
+        <v>9173.9303323205877</v>
       </c>
       <c r="AF43" s="2">
-        <f t="shared" si="25"/>
-        <v>10205.109867661151</v>
+        <f t="shared" si="33"/>
+        <v>11505.436702582236</v>
       </c>
       <c r="AG43" s="2">
-        <f t="shared" si="25"/>
-        <v>12202.518916132791</v>
+        <f t="shared" si="33"/>
+        <v>14135.54548962073</v>
       </c>
       <c r="AH43" s="2">
-        <f t="shared" si="25"/>
-        <v>14331.191521598292</v>
+        <f t="shared" si="33"/>
+        <v>17097.179368617253</v>
       </c>
     </row>
     <row r="44" spans="2:141" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B44" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C44" s="2">
         <f>+C41+C43</f>
@@ -3149,74 +3177,78 @@
         <f>+O41+O43</f>
         <v>6708</v>
       </c>
+      <c r="P44" s="2">
+        <f>+P41+P43</f>
+        <v>6901</v>
+      </c>
       <c r="S44" s="2">
-        <f t="shared" ref="S44:AH44" si="26">+SUM(S42:S43)+S41</f>
+        <f t="shared" ref="S44:AH44" si="34">+SUM(S42:S43)+S41</f>
         <v>15940</v>
       </c>
       <c r="T44" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="34"/>
         <v>14568</v>
       </c>
       <c r="U44" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="34"/>
         <v>16870</v>
       </c>
       <c r="V44" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="34"/>
         <v>20143</v>
       </c>
       <c r="W44" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="34"/>
         <v>22907</v>
       </c>
       <c r="X44" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="34"/>
         <v>25412</v>
       </c>
       <c r="Y44" s="2">
-        <f t="shared" si="26"/>
-        <v>27475.038399999998</v>
+        <f t="shared" si="34"/>
+        <v>27906.689000000006</v>
       </c>
       <c r="Z44" s="2">
-        <f t="shared" si="26"/>
-        <v>29799.557808000009</v>
+        <f t="shared" si="34"/>
+        <v>30819.174460000006</v>
       </c>
       <c r="AA44" s="2">
-        <f t="shared" si="26"/>
-        <v>33467.483838080007</v>
+        <f t="shared" si="34"/>
+        <v>35203.346878400007</v>
       </c>
       <c r="AB44" s="2">
-        <f t="shared" si="26"/>
-        <v>36481.264704811212</v>
+        <f t="shared" si="34"/>
+        <v>40086.730975036015</v>
       </c>
       <c r="AC44" s="2">
-        <f t="shared" si="26"/>
-        <v>39702.167497457267</v>
+        <f t="shared" si="34"/>
+        <v>45522.11490706246</v>
       </c>
       <c r="AD44" s="2">
-        <f t="shared" si="26"/>
-        <v>43142.886738671812</v>
+        <f t="shared" si="34"/>
+        <v>51567.702087516212</v>
       </c>
       <c r="AE44" s="2">
-        <f t="shared" si="26"/>
-        <v>46816.847704508422</v>
+        <f t="shared" si="34"/>
+        <v>58287.659256541185</v>
       </c>
       <c r="AF44" s="2">
-        <f t="shared" si="26"/>
-        <v>49935.226211791</v>
+        <f t="shared" si="34"/>
+        <v>65752.719675962318</v>
       </c>
       <c r="AG44" s="2">
-        <f t="shared" si="26"/>
-        <v>53216.815136637495</v>
+        <f t="shared" si="34"/>
+        <v>74040.846974913104</v>
       </c>
       <c r="AH44" s="2">
-        <f t="shared" si="26"/>
-        <v>56669.313607775752</v>
+        <f t="shared" si="34"/>
+        <v>83237.965727741888</v>
       </c>
     </row>
     <row r="45" spans="2:141" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B45" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C45" s="2">
         <v>938</v>
@@ -3257,6 +3289,9 @@
       <c r="O45" s="2">
         <v>1081</v>
       </c>
+      <c r="P45" s="2">
+        <v>861</v>
+      </c>
       <c r="S45" s="2">
         <v>2804</v>
       </c>
@@ -3276,650 +3311,658 @@
         <v>4173</v>
       </c>
       <c r="Y45" s="2">
-        <f t="shared" ref="Y45:AH45" si="27">+Y44*0.2</f>
-        <v>5495.0076799999997</v>
+        <f t="shared" ref="Y45:AH45" si="35">+Y44*0.2</f>
+        <v>5581.3378000000012</v>
       </c>
       <c r="Z45" s="2">
-        <f t="shared" si="27"/>
-        <v>5959.9115616000017</v>
+        <f t="shared" si="35"/>
+        <v>6163.8348920000017</v>
       </c>
       <c r="AA45" s="2">
-        <f t="shared" si="27"/>
-        <v>6693.4967676160013</v>
+        <f t="shared" si="35"/>
+        <v>7040.6693756800014</v>
       </c>
       <c r="AB45" s="2">
-        <f t="shared" si="27"/>
-        <v>7296.252940962243</v>
+        <f t="shared" si="35"/>
+        <v>8017.3461950072033</v>
       </c>
       <c r="AC45" s="2">
-        <f t="shared" si="27"/>
-        <v>7940.4334994914534</v>
+        <f t="shared" si="35"/>
+        <v>9104.4229814124919</v>
       </c>
       <c r="AD45" s="2">
-        <f t="shared" si="27"/>
-        <v>8628.5773477343628</v>
+        <f t="shared" si="35"/>
+        <v>10313.540417503244</v>
       </c>
       <c r="AE45" s="2">
-        <f t="shared" si="27"/>
-        <v>9363.3695409016855</v>
+        <f t="shared" si="35"/>
+        <v>11657.531851308238</v>
       </c>
       <c r="AF45" s="2">
-        <f t="shared" si="27"/>
-        <v>9987.045242358201</v>
+        <f t="shared" si="35"/>
+        <v>13150.543935192465</v>
       </c>
       <c r="AG45" s="2">
-        <f t="shared" si="27"/>
-        <v>10643.363027327499</v>
+        <f t="shared" si="35"/>
+        <v>14808.169394982622</v>
       </c>
       <c r="AH45" s="2">
-        <f t="shared" si="27"/>
-        <v>11333.862721555151</v>
+        <f t="shared" si="35"/>
+        <v>16647.593145548377</v>
       </c>
     </row>
     <row r="46" spans="2:141" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B46" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C46" s="2">
-        <f t="shared" ref="C46:O46" si="28">+C44-C45</f>
+        <f t="shared" ref="C46:O46" si="36">+C44-C45</f>
         <v>4439</v>
       </c>
       <c r="D46" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="36"/>
         <v>3988</v>
       </c>
       <c r="E46" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="36"/>
         <v>4469</v>
       </c>
       <c r="F46" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="36"/>
         <v>4328</v>
       </c>
       <c r="G46" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="36"/>
         <v>4873</v>
       </c>
       <c r="H46" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="36"/>
         <v>4491</v>
       </c>
       <c r="I46" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="36"/>
         <v>4848</v>
       </c>
       <c r="J46" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="36"/>
         <v>5240</v>
       </c>
       <c r="K46" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="36"/>
         <v>5333</v>
       </c>
       <c r="L46" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="36"/>
         <v>4967</v>
       </c>
       <c r="M46" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="36"/>
         <v>5149</v>
       </c>
       <c r="N46" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="36"/>
         <v>5602</v>
       </c>
       <c r="O46" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="36"/>
         <v>5627</v>
       </c>
+      <c r="P46" s="2">
+        <f t="shared" ref="P46" si="37">+P44-P45</f>
+        <v>6040</v>
+      </c>
       <c r="S46" s="2">
-        <f t="shared" ref="S46:AG46" si="29">+S44-S45</f>
+        <f t="shared" ref="S46:AG46" si="38">+S44-S45</f>
         <v>13136</v>
       </c>
       <c r="T46" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="38"/>
         <v>11644</v>
       </c>
       <c r="U46" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="38"/>
         <v>13118</v>
       </c>
       <c r="V46" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="38"/>
         <v>16964</v>
       </c>
       <c r="W46" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="38"/>
         <v>19143</v>
       </c>
       <c r="X46" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="38"/>
         <v>21239</v>
       </c>
       <c r="Y46" s="2">
-        <f t="shared" si="29"/>
-        <v>21980.030719999999</v>
+        <f t="shared" si="38"/>
+        <v>22325.351200000005</v>
       </c>
       <c r="Z46" s="2">
-        <f t="shared" si="29"/>
-        <v>23839.646246400007</v>
+        <f t="shared" si="38"/>
+        <v>24655.339568000003</v>
       </c>
       <c r="AA46" s="2">
-        <f t="shared" si="29"/>
-        <v>26773.987070464005</v>
+        <f t="shared" si="38"/>
+        <v>28162.677502720006</v>
       </c>
       <c r="AB46" s="2">
-        <f t="shared" si="29"/>
-        <v>29185.011763848968</v>
+        <f t="shared" si="38"/>
+        <v>32069.384780028813</v>
       </c>
       <c r="AC46" s="2">
-        <f t="shared" si="29"/>
-        <v>31761.733997965814</v>
+        <f t="shared" si="38"/>
+        <v>36417.691925649968</v>
       </c>
       <c r="AD46" s="2">
-        <f t="shared" si="29"/>
-        <v>34514.309390937451</v>
+        <f t="shared" si="38"/>
+        <v>41254.161670012967</v>
       </c>
       <c r="AE46" s="2">
-        <f t="shared" si="29"/>
-        <v>37453.478163606735</v>
+        <f t="shared" si="38"/>
+        <v>46630.127405232946</v>
       </c>
       <c r="AF46" s="2">
-        <f t="shared" si="29"/>
-        <v>39948.180969432797</v>
+        <f t="shared" si="38"/>
+        <v>52602.175740769853</v>
       </c>
       <c r="AG46" s="2">
-        <f t="shared" si="29"/>
-        <v>42573.452109309997</v>
+        <f t="shared" si="38"/>
+        <v>59232.677579930481</v>
       </c>
       <c r="AH46" s="2">
         <f>+AH44-AH45</f>
-        <v>45335.450886220598</v>
+        <v>66590.372582193508</v>
       </c>
       <c r="AI46" s="2">
-        <f t="shared" ref="AI46:BN46" si="30">+AH46*(1+$AK$50)</f>
-        <v>44882.096377358394</v>
+        <f t="shared" ref="AI46:BN46" si="39">+AH46*(1+$AK$50)</f>
+        <v>65924.468856371575</v>
       </c>
       <c r="AJ46" s="2">
-        <f t="shared" si="30"/>
-        <v>44433.275413584808</v>
+        <f t="shared" si="39"/>
+        <v>65265.224167807857</v>
       </c>
       <c r="AK46" s="2">
-        <f t="shared" si="30"/>
-        <v>43988.942659448963</v>
+        <f t="shared" si="39"/>
+        <v>64612.571926129778</v>
       </c>
       <c r="AL46" s="2">
-        <f t="shared" si="30"/>
-        <v>43549.053232854472</v>
+        <f t="shared" si="39"/>
+        <v>63966.446206868481</v>
       </c>
       <c r="AM46" s="2">
-        <f t="shared" si="30"/>
-        <v>43113.56270052593</v>
+        <f t="shared" si="39"/>
+        <v>63326.781744799795</v>
       </c>
       <c r="AN46" s="2">
-        <f t="shared" si="30"/>
-        <v>42682.427073520674</v>
+        <f t="shared" si="39"/>
+        <v>62693.5139273518</v>
       </c>
       <c r="AO46" s="2">
-        <f t="shared" si="30"/>
-        <v>42255.60280278547</v>
+        <f t="shared" si="39"/>
+        <v>62066.578788078281</v>
       </c>
       <c r="AP46" s="2">
-        <f t="shared" si="30"/>
-        <v>41833.046774757611</v>
+        <f t="shared" si="39"/>
+        <v>61445.913000197499</v>
       </c>
       <c r="AQ46" s="2">
-        <f t="shared" si="30"/>
-        <v>41414.716307010036</v>
+        <f t="shared" si="39"/>
+        <v>60831.453870195524</v>
       </c>
       <c r="AR46" s="2">
-        <f t="shared" si="30"/>
-        <v>41000.569143939938</v>
+        <f t="shared" si="39"/>
+        <v>60223.13933149357</v>
       </c>
       <c r="AS46" s="2">
-        <f t="shared" si="30"/>
-        <v>40590.563452500537</v>
+        <f t="shared" si="39"/>
+        <v>59620.907938178636</v>
       </c>
       <c r="AT46" s="2">
-        <f t="shared" si="30"/>
-        <v>40184.657817975531</v>
+        <f t="shared" si="39"/>
+        <v>59024.698858796852</v>
       </c>
       <c r="AU46" s="2">
-        <f t="shared" si="30"/>
-        <v>39782.811239795774</v>
+        <f t="shared" si="39"/>
+        <v>58434.451870208883</v>
       </c>
       <c r="AV46" s="2">
-        <f t="shared" si="30"/>
-        <v>39384.983127397812</v>
+        <f t="shared" si="39"/>
+        <v>57850.107351506791</v>
       </c>
       <c r="AW46" s="2">
-        <f t="shared" si="30"/>
-        <v>38991.133296123837</v>
+        <f t="shared" si="39"/>
+        <v>57271.606277991719</v>
       </c>
       <c r="AX46" s="2">
-        <f t="shared" si="30"/>
-        <v>38601.221963162599</v>
+        <f t="shared" si="39"/>
+        <v>56698.890215211803</v>
       </c>
       <c r="AY46" s="2">
-        <f t="shared" si="30"/>
-        <v>38215.20974353097</v>
+        <f t="shared" si="39"/>
+        <v>56131.901313059687</v>
       </c>
       <c r="AZ46" s="2">
-        <f t="shared" si="30"/>
-        <v>37833.057646095658</v>
+        <f t="shared" si="39"/>
+        <v>55570.58229992909</v>
       </c>
       <c r="BA46" s="2">
-        <f t="shared" si="30"/>
-        <v>37454.727069634704</v>
+        <f t="shared" si="39"/>
+        <v>55014.8764769298</v>
       </c>
       <c r="BB46" s="2">
-        <f t="shared" si="30"/>
-        <v>37080.179798938356</v>
+        <f t="shared" si="39"/>
+        <v>54464.7277121605</v>
       </c>
       <c r="BC46" s="2">
-        <f t="shared" si="30"/>
-        <v>36709.378000948971</v>
+        <f t="shared" si="39"/>
+        <v>53920.080435038893</v>
       </c>
       <c r="BD46" s="2">
-        <f t="shared" si="30"/>
-        <v>36342.28422093948</v>
+        <f t="shared" si="39"/>
+        <v>53380.879630688505</v>
       </c>
       <c r="BE46" s="2">
-        <f t="shared" si="30"/>
-        <v>35978.861378730086</v>
+        <f t="shared" si="39"/>
+        <v>52847.070834381622</v>
       </c>
       <c r="BF46" s="2">
-        <f t="shared" si="30"/>
-        <v>35619.072764942786</v>
+        <f t="shared" si="39"/>
+        <v>52318.600126037803</v>
       </c>
       <c r="BG46" s="2">
-        <f t="shared" si="30"/>
-        <v>35262.882037293355</v>
+        <f t="shared" si="39"/>
+        <v>51795.414124777424</v>
       </c>
       <c r="BH46" s="2">
-        <f t="shared" si="30"/>
-        <v>34910.253216920421</v>
+        <f t="shared" si="39"/>
+        <v>51277.459983529647</v>
       </c>
       <c r="BI46" s="2">
-        <f t="shared" si="30"/>
-        <v>34561.150684751214</v>
+        <f t="shared" si="39"/>
+        <v>50764.685383694348</v>
       </c>
       <c r="BJ46" s="2">
-        <f t="shared" si="30"/>
-        <v>34215.539177903702</v>
+        <f t="shared" si="39"/>
+        <v>50257.038529857404</v>
       </c>
       <c r="BK46" s="2">
-        <f t="shared" si="30"/>
-        <v>33873.383786124665</v>
+        <f t="shared" si="39"/>
+        <v>49754.468144558828</v>
       </c>
       <c r="BL46" s="2">
-        <f t="shared" si="30"/>
-        <v>33534.649948263417</v>
+        <f t="shared" si="39"/>
+        <v>49256.923463113242</v>
       </c>
       <c r="BM46" s="2">
-        <f t="shared" si="30"/>
-        <v>33199.303448780782</v>
+        <f t="shared" si="39"/>
+        <v>48764.354228482109</v>
       </c>
       <c r="BN46" s="2">
-        <f t="shared" si="30"/>
-        <v>32867.310414292973</v>
+        <f t="shared" si="39"/>
+        <v>48276.710686197286</v>
       </c>
       <c r="BO46" s="2">
-        <f t="shared" ref="BO46:CT46" si="31">+BN46*(1+$AK$50)</f>
-        <v>32538.637310150043</v>
+        <f t="shared" ref="BO46:CT46" si="40">+BN46*(1+$AK$50)</f>
+        <v>47793.943579335311</v>
       </c>
       <c r="BP46" s="2">
-        <f t="shared" si="31"/>
-        <v>32213.250937048542</v>
+        <f t="shared" si="40"/>
+        <v>47316.004143541955</v>
       </c>
       <c r="BQ46" s="2">
-        <f t="shared" si="31"/>
-        <v>31891.118427678055</v>
+        <f t="shared" si="40"/>
+        <v>46842.844102106537</v>
       </c>
       <c r="BR46" s="2">
-        <f t="shared" si="31"/>
-        <v>31572.207243401273</v>
+        <f t="shared" si="40"/>
+        <v>46374.41566108547</v>
       </c>
       <c r="BS46" s="2">
-        <f t="shared" si="31"/>
-        <v>31256.485170967262</v>
+        <f t="shared" si="40"/>
+        <v>45910.671504474616</v>
       </c>
       <c r="BT46" s="2">
-        <f t="shared" si="31"/>
-        <v>30943.920319257588</v>
+        <f t="shared" si="40"/>
+        <v>45451.564789429867</v>
       </c>
       <c r="BU46" s="2">
-        <f t="shared" si="31"/>
-        <v>30634.481116065013</v>
+        <f t="shared" si="40"/>
+        <v>44997.049141535565</v>
       </c>
       <c r="BV46" s="2">
-        <f t="shared" si="31"/>
-        <v>30328.136304904361</v>
+        <f t="shared" si="40"/>
+        <v>44547.078650120209</v>
       </c>
       <c r="BW46" s="2">
-        <f t="shared" si="31"/>
-        <v>30024.854941855316</v>
+        <f t="shared" si="40"/>
+        <v>44101.607863619007</v>
       </c>
       <c r="BX46" s="2">
-        <f t="shared" si="31"/>
-        <v>29724.606392436763</v>
+        <f t="shared" si="40"/>
+        <v>43660.591784982818</v>
       </c>
       <c r="BY46" s="2">
-        <f t="shared" si="31"/>
-        <v>29427.360328512394</v>
+        <f t="shared" si="40"/>
+        <v>43223.985867132993</v>
       </c>
       <c r="BZ46" s="2">
-        <f t="shared" si="31"/>
-        <v>29133.086725227269</v>
+        <f t="shared" si="40"/>
+        <v>42791.746008461661</v>
       </c>
       <c r="CA46" s="2">
-        <f t="shared" si="31"/>
-        <v>28841.755857974997</v>
+        <f t="shared" si="40"/>
+        <v>42363.828548377045</v>
       </c>
       <c r="CB46" s="2">
-        <f t="shared" si="31"/>
-        <v>28553.338299395247</v>
+        <f t="shared" si="40"/>
+        <v>41940.190262893273</v>
       </c>
       <c r="CC46" s="2">
-        <f t="shared" si="31"/>
-        <v>28267.804916401295</v>
+        <f t="shared" si="40"/>
+        <v>41520.788360264341</v>
       </c>
       <c r="CD46" s="2">
-        <f t="shared" si="31"/>
-        <v>27985.126867237283</v>
+        <f t="shared" si="40"/>
+        <v>41105.5804766617</v>
       </c>
       <c r="CE46" s="2">
-        <f t="shared" si="31"/>
-        <v>27705.275598564909</v>
+        <f t="shared" si="40"/>
+        <v>40694.52467189508</v>
       </c>
       <c r="CF46" s="2">
-        <f t="shared" si="31"/>
-        <v>27428.22284257926</v>
+        <f t="shared" si="40"/>
+        <v>40287.579425176133</v>
       </c>
       <c r="CG46" s="2">
-        <f t="shared" si="31"/>
-        <v>27153.940614153467</v>
+        <f t="shared" si="40"/>
+        <v>39884.70363092437</v>
       </c>
       <c r="CH46" s="2">
-        <f t="shared" si="31"/>
-        <v>26882.401208011932</v>
+        <f t="shared" si="40"/>
+        <v>39485.856594615128</v>
       </c>
       <c r="CI46" s="2">
-        <f t="shared" si="31"/>
-        <v>26613.577195931812</v>
+        <f t="shared" si="40"/>
+        <v>39090.998028668975</v>
       </c>
       <c r="CJ46" s="2">
-        <f t="shared" si="31"/>
-        <v>26347.441423972494</v>
+        <f t="shared" si="40"/>
+        <v>38700.088048382284</v>
       </c>
       <c r="CK46" s="2">
-        <f t="shared" si="31"/>
-        <v>26083.967009732769</v>
+        <f t="shared" si="40"/>
+        <v>38313.087167898462</v>
       </c>
       <c r="CL46" s="2">
-        <f t="shared" si="31"/>
-        <v>25823.127339635441</v>
+        <f t="shared" si="40"/>
+        <v>37929.956296219476</v>
       </c>
       <c r="CM46" s="2">
-        <f t="shared" si="31"/>
-        <v>25564.896066239085</v>
+        <f t="shared" si="40"/>
+        <v>37550.656733257281</v>
       </c>
       <c r="CN46" s="2">
-        <f t="shared" si="31"/>
-        <v>25309.247105576695</v>
+        <f t="shared" si="40"/>
+        <v>37175.150165924708</v>
       </c>
       <c r="CO46" s="2">
-        <f t="shared" si="31"/>
-        <v>25056.154634520928</v>
+        <f t="shared" si="40"/>
+        <v>36803.398664265464</v>
       </c>
       <c r="CP46" s="2">
-        <f t="shared" si="31"/>
-        <v>24805.593088175719</v>
+        <f t="shared" si="40"/>
+        <v>36435.364677622805</v>
       </c>
       <c r="CQ46" s="2">
-        <f t="shared" si="31"/>
-        <v>24557.537157293962</v>
+        <f t="shared" si="40"/>
+        <v>36071.011030846574</v>
       </c>
       <c r="CR46" s="2">
-        <f t="shared" si="31"/>
-        <v>24311.961785721021</v>
+        <f t="shared" si="40"/>
+        <v>35710.300920538109</v>
       </c>
       <c r="CS46" s="2">
-        <f t="shared" si="31"/>
-        <v>24068.842167863811</v>
+        <f t="shared" si="40"/>
+        <v>35353.197911332725</v>
       </c>
       <c r="CT46" s="2">
-        <f t="shared" si="31"/>
-        <v>23828.153746185173</v>
+        <f t="shared" si="40"/>
+        <v>34999.665932219395</v>
       </c>
       <c r="CU46" s="2">
-        <f t="shared" ref="CU46:DZ46" si="32">+CT46*(1+$AK$50)</f>
-        <v>23589.872208723322</v>
+        <f t="shared" ref="CU46:DZ46" si="41">+CT46*(1+$AK$50)</f>
+        <v>34649.669272897205</v>
       </c>
       <c r="CV46" s="2">
-        <f t="shared" si="32"/>
-        <v>23353.973486636089</v>
+        <f t="shared" si="41"/>
+        <v>34303.172580168233</v>
       </c>
       <c r="CW46" s="2">
-        <f t="shared" si="32"/>
-        <v>23120.433751769728</v>
+        <f t="shared" si="41"/>
+        <v>33960.140854366553</v>
       </c>
       <c r="CX46" s="2">
-        <f t="shared" si="32"/>
-        <v>22889.22941425203</v>
+        <f t="shared" si="41"/>
+        <v>33620.539445822884</v>
       </c>
       <c r="CY46" s="2">
-        <f t="shared" si="32"/>
-        <v>22660.337120109511</v>
+        <f t="shared" si="41"/>
+        <v>33284.334051364654</v>
       </c>
       <c r="CZ46" s="2">
-        <f t="shared" si="32"/>
-        <v>22433.733748908417</v>
+        <f t="shared" si="41"/>
+        <v>32951.490710851009</v>
       </c>
       <c r="DA46" s="2">
-        <f t="shared" si="32"/>
-        <v>22209.396411419333</v>
+        <f t="shared" si="41"/>
+        <v>32621.975803742498</v>
       </c>
       <c r="DB46" s="2">
-        <f t="shared" si="32"/>
-        <v>21987.302447305141</v>
+        <f t="shared" si="41"/>
+        <v>32295.756045705071</v>
       </c>
       <c r="DC46" s="2">
-        <f t="shared" si="32"/>
-        <v>21767.42942283209</v>
+        <f t="shared" si="41"/>
+        <v>31972.798485248019</v>
       </c>
       <c r="DD46" s="2">
-        <f t="shared" si="32"/>
-        <v>21549.755128603771</v>
+        <f t="shared" si="41"/>
+        <v>31653.070500395537</v>
       </c>
       <c r="DE46" s="2">
-        <f t="shared" si="32"/>
-        <v>21334.257577317734</v>
+        <f t="shared" si="41"/>
+        <v>31336.539795391582</v>
       </c>
       <c r="DF46" s="2">
-        <f t="shared" si="32"/>
-        <v>21120.915001544556</v>
+        <f t="shared" si="41"/>
+        <v>31023.174397437666</v>
       </c>
       <c r="DG46" s="2">
-        <f t="shared" si="32"/>
-        <v>20909.70585152911</v>
+        <f t="shared" si="41"/>
+        <v>30712.942653463288</v>
       </c>
       <c r="DH46" s="2">
-        <f t="shared" si="32"/>
-        <v>20700.60879301382</v>
+        <f t="shared" si="41"/>
+        <v>30405.813226928654</v>
       </c>
       <c r="DI46" s="2">
-        <f t="shared" si="32"/>
-        <v>20493.602705083682</v>
+        <f t="shared" si="41"/>
+        <v>30101.755094659369</v>
       </c>
       <c r="DJ46" s="2">
-        <f t="shared" si="32"/>
-        <v>20288.666678032845</v>
+        <f t="shared" si="41"/>
+        <v>29800.737543712774</v>
       </c>
       <c r="DK46" s="2">
-        <f t="shared" si="32"/>
-        <v>20085.780011252515</v>
+        <f t="shared" si="41"/>
+        <v>29502.730168275644</v>
       </c>
       <c r="DL46" s="2">
-        <f t="shared" si="32"/>
-        <v>19884.92221113999</v>
+        <f t="shared" si="41"/>
+        <v>29207.702866592888</v>
       </c>
       <c r="DM46" s="2">
-        <f t="shared" si="32"/>
-        <v>19686.072989028591</v>
+        <f t="shared" si="41"/>
+        <v>28915.62583792696</v>
       </c>
       <c r="DN46" s="2">
-        <f t="shared" si="32"/>
-        <v>19489.212259138305</v>
+        <f t="shared" si="41"/>
+        <v>28626.469579547691</v>
       </c>
       <c r="DO46" s="2">
-        <f t="shared" si="32"/>
-        <v>19294.320136546921</v>
+        <f t="shared" si="41"/>
+        <v>28340.204883752212</v>
       </c>
       <c r="DP46" s="2">
-        <f t="shared" si="32"/>
-        <v>19101.376935181452</v>
+        <f t="shared" si="41"/>
+        <v>28056.802834914692</v>
       </c>
       <c r="DQ46" s="2">
-        <f t="shared" si="32"/>
-        <v>18910.363165829636</v>
+        <f t="shared" si="41"/>
+        <v>27776.234806565546</v>
       </c>
       <c r="DR46" s="2">
-        <f t="shared" si="32"/>
-        <v>18721.259534171339</v>
+        <f t="shared" si="41"/>
+        <v>27498.472458499891</v>
       </c>
       <c r="DS46" s="2">
-        <f t="shared" si="32"/>
-        <v>18534.046938829626</v>
+        <f t="shared" si="41"/>
+        <v>27223.487733914892</v>
       </c>
       <c r="DT46" s="2">
-        <f t="shared" si="32"/>
-        <v>18348.706469441331</v>
+        <f t="shared" si="41"/>
+        <v>26951.252856575742</v>
       </c>
       <c r="DU46" s="2">
-        <f t="shared" si="32"/>
-        <v>18165.219404746917</v>
+        <f t="shared" si="41"/>
+        <v>26681.740328009986</v>
       </c>
       <c r="DV46" s="2">
-        <f t="shared" si="32"/>
-        <v>17983.567210699446</v>
+        <f t="shared" si="41"/>
+        <v>26414.922924729886</v>
       </c>
       <c r="DW46" s="2">
-        <f t="shared" si="32"/>
-        <v>17803.731538592452</v>
+        <f t="shared" si="41"/>
+        <v>26150.773695482589</v>
       </c>
       <c r="DX46" s="2">
-        <f t="shared" si="32"/>
-        <v>17625.694223206527</v>
+        <f t="shared" si="41"/>
+        <v>25889.265958527762</v>
       </c>
       <c r="DY46" s="2">
-        <f t="shared" si="32"/>
-        <v>17449.43728097446</v>
+        <f t="shared" si="41"/>
+        <v>25630.373298942483</v>
       </c>
       <c r="DZ46" s="2">
-        <f t="shared" si="32"/>
-        <v>17274.942908164714</v>
+        <f t="shared" si="41"/>
+        <v>25374.069565953057</v>
       </c>
       <c r="EA46" s="2">
-        <f t="shared" ref="EA46:EK46" si="33">+DZ46*(1+$AK$50)</f>
-        <v>17102.193479083067</v>
+        <f t="shared" ref="EA46:EK46" si="42">+DZ46*(1+$AK$50)</f>
+        <v>25120.328870293528</v>
       </c>
       <c r="EB46" s="2">
-        <f t="shared" si="33"/>
-        <v>16931.171544292236</v>
+        <f t="shared" si="42"/>
+        <v>24869.125581590593</v>
       </c>
       <c r="EC46" s="2">
-        <f t="shared" si="33"/>
-        <v>16761.859828849312</v>
+        <f t="shared" si="42"/>
+        <v>24620.434325774688</v>
       </c>
       <c r="ED46" s="2">
-        <f t="shared" si="33"/>
-        <v>16594.24123056082</v>
+        <f t="shared" si="42"/>
+        <v>24374.229982516939</v>
       </c>
       <c r="EE46" s="2">
-        <f t="shared" si="33"/>
-        <v>16428.298818255211</v>
+        <f t="shared" si="42"/>
+        <v>24130.487682691768</v>
       </c>
       <c r="EF46" s="2">
-        <f t="shared" si="33"/>
-        <v>16264.015830072658</v>
+        <f t="shared" si="42"/>
+        <v>23889.18280586485</v>
       </c>
       <c r="EG46" s="2">
-        <f t="shared" si="33"/>
-        <v>16101.375671771932</v>
+        <f t="shared" si="42"/>
+        <v>23650.290977806202</v>
       </c>
       <c r="EH46" s="2">
-        <f t="shared" si="33"/>
-        <v>15940.361915054213</v>
+        <f t="shared" si="42"/>
+        <v>23413.788068028141</v>
       </c>
       <c r="EI46" s="2">
-        <f t="shared" si="33"/>
-        <v>15780.958295903671</v>
+        <f t="shared" si="42"/>
+        <v>23179.650187347859</v>
       </c>
       <c r="EJ46" s="2">
-        <f t="shared" si="33"/>
-        <v>15623.148712944634</v>
+        <f t="shared" si="42"/>
+        <v>22947.85368547438</v>
       </c>
       <c r="EK46" s="2">
-        <f t="shared" si="33"/>
-        <v>15466.917225815188</v>
+        <f t="shared" si="42"/>
+        <v>22718.375148619634</v>
       </c>
     </row>
     <row r="47" spans="2:141" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B47" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C47" s="6">
-        <f t="shared" ref="C47:O47" si="34">+C46/C48</f>
+        <f t="shared" ref="C47:O47" si="43">+C46/C48</f>
         <v>2.0560444650301064</v>
       </c>
       <c r="D47" s="6">
-        <f t="shared" si="34"/>
+        <f t="shared" si="43"/>
         <v>1.861811391223156</v>
       </c>
       <c r="E47" s="6">
-        <f t="shared" si="34"/>
+        <f t="shared" si="43"/>
         <v>2.0991075622357913</v>
       </c>
       <c r="F47" s="6">
-        <f t="shared" si="34"/>
+        <f t="shared" si="43"/>
         <v>2.0453686200378072</v>
       </c>
       <c r="G47" s="6">
-        <f t="shared" si="34"/>
+        <f t="shared" si="43"/>
         <v>2.3182683158896289</v>
       </c>
       <c r="H47" s="6">
-        <f t="shared" si="34"/>
+        <f t="shared" si="43"/>
         <v>2.1457238413760154</v>
       </c>
       <c r="I47" s="6">
-        <f t="shared" si="34"/>
+        <f t="shared" si="43"/>
         <v>2.3307692307692309</v>
       </c>
       <c r="J47" s="6">
-        <f t="shared" si="34"/>
+        <f t="shared" si="43"/>
         <v>2.5375302663438255</v>
       </c>
       <c r="K47" s="6">
-        <f t="shared" si="34"/>
+        <f t="shared" si="43"/>
         <v>2.6078239608801956</v>
       </c>
       <c r="L47" s="6">
-        <f t="shared" si="34"/>
+        <f t="shared" si="43"/>
         <v>2.4359980382540463</v>
       </c>
       <c r="M47" s="6">
-        <f t="shared" si="34"/>
+        <f t="shared" si="43"/>
         <v>2.5377033021192705</v>
       </c>
       <c r="N47" s="6">
-        <f t="shared" si="34"/>
+        <f t="shared" si="43"/>
         <v>2.7732673267326731</v>
       </c>
       <c r="O47" s="6">
-        <f t="shared" si="34"/>
+        <f t="shared" si="43"/>
         <v>2.8347607052896726</v>
+      </c>
+      <c r="P47" s="6">
+        <f t="shared" ref="P47" si="44">+P46/P48</f>
+        <v>3.0458900655572365</v>
       </c>
     </row>
     <row r="48" spans="2:141" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -3966,208 +4009,283 @@
       <c r="O48" s="2">
         <v>1985</v>
       </c>
+      <c r="P48" s="2">
+        <f>1974+9</f>
+        <v>1983</v>
+      </c>
     </row>
     <row r="49" spans="2:40" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="X49" s="19"/>
+      <c r="S49" s="5"/>
+      <c r="T49" s="5"/>
+      <c r="U49" s="5"/>
+      <c r="V49" s="5"/>
+      <c r="W49" s="5"/>
+      <c r="X49" s="5"/>
+      <c r="Y49" s="5"/>
+      <c r="Z49" s="5"/>
+      <c r="AA49" s="5"/>
+      <c r="AB49" s="5"/>
+      <c r="AC49" s="5"/>
+      <c r="AD49" s="5"/>
+      <c r="AE49" s="5"/>
+      <c r="AF49" s="5"/>
+      <c r="AG49" s="5"/>
+      <c r="AH49" s="5"/>
     </row>
     <row r="50" spans="2:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B50" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="S50" s="8">
-        <f t="shared" ref="S50:AH50" si="35">+S42/S34</f>
-        <v>-2.3197110153631892E-2</v>
-      </c>
-      <c r="T50" s="8">
-        <f t="shared" si="35"/>
-        <v>-2.3619884647074981E-2</v>
-      </c>
-      <c r="U50" s="8">
-        <f t="shared" si="35"/>
-        <v>-2.1281891723708774E-2</v>
-      </c>
-      <c r="V50" s="8">
-        <f t="shared" si="35"/>
-        <v>-1.8355510064824294E-2</v>
-      </c>
-      <c r="W50" s="8">
-        <f t="shared" si="35"/>
-        <v>-1.9722536979756837E-2</v>
-      </c>
-      <c r="X50" s="8">
-        <f t="shared" si="35"/>
-        <v>-1.7842231253131436E-2</v>
-      </c>
-      <c r="Y50" s="8">
-        <f t="shared" si="35"/>
-        <v>-2.0000000000000084E-2</v>
-      </c>
-      <c r="Z50" s="8">
-        <f t="shared" si="35"/>
-        <v>-1.9999999999999934E-2</v>
-      </c>
-      <c r="AA50" s="8">
-        <f t="shared" si="35"/>
-        <v>-2.0000000000000094E-2</v>
-      </c>
-      <c r="AB50" s="8">
-        <f t="shared" si="35"/>
-        <v>-0.02</v>
-      </c>
-      <c r="AC50" s="8">
-        <f t="shared" si="35"/>
-        <v>-2.000000000000008E-2</v>
-      </c>
-      <c r="AD50" s="8">
-        <f t="shared" si="35"/>
-        <v>-2.0000000000000063E-2</v>
-      </c>
-      <c r="AE50" s="8">
-        <f t="shared" si="35"/>
-        <v>-2.0000000000000077E-2</v>
-      </c>
-      <c r="AF50" s="8">
-        <f t="shared" si="35"/>
-        <v>-1.9999999999999997E-2</v>
-      </c>
-      <c r="AG50" s="8">
-        <f t="shared" si="35"/>
-        <v>-2.0000000000000025E-2</v>
-      </c>
-      <c r="AH50" s="8">
-        <f t="shared" si="35"/>
-        <v>-2.0000000000000021E-2</v>
-      </c>
-      <c r="AI50" s="8"/>
+        <v>26</v>
+      </c>
+      <c r="C50" s="5">
+        <f t="shared" ref="C50:O50" si="45">+C41/C34</f>
+        <v>0.72559852670349911</v>
+      </c>
+      <c r="D50" s="5">
+        <f t="shared" si="45"/>
+        <v>0.69675893726526639</v>
+      </c>
+      <c r="E50" s="5">
+        <f t="shared" si="45"/>
+        <v>0.7003436426116838</v>
+      </c>
+      <c r="F50" s="5">
+        <f t="shared" si="45"/>
+        <v>0.68267625529729037</v>
+      </c>
+      <c r="G50" s="5">
+        <f t="shared" si="45"/>
+        <v>0.71156754032258063</v>
+      </c>
+      <c r="H50" s="5">
+        <f t="shared" si="45"/>
+        <v>0.69755792110206638</v>
+      </c>
+      <c r="I50" s="5">
+        <f t="shared" si="45"/>
+        <v>0.70368090606918621</v>
+      </c>
+      <c r="J50" s="5">
+        <f t="shared" si="45"/>
+        <v>0.68834940178882564</v>
+      </c>
+      <c r="K50" s="5">
+        <f t="shared" si="45"/>
+        <v>0.71924947880472545</v>
+      </c>
+      <c r="L50" s="5">
+        <f t="shared" si="45"/>
+        <v>0.6875213675213675</v>
+      </c>
+      <c r="M50" s="5">
+        <f t="shared" si="45"/>
+        <v>0.69831460674157309</v>
+      </c>
+      <c r="N50" s="5">
+        <f t="shared" si="45"/>
+        <v>0.68971612769054802</v>
+      </c>
+      <c r="O50" s="5">
+        <f t="shared" si="45"/>
+        <v>0.68980021030494221</v>
+      </c>
+      <c r="P50" s="5">
+        <f t="shared" ref="P50" si="46">+P41/P34</f>
+        <v>0.702522409839483</v>
+      </c>
+      <c r="S50" s="5">
+        <f t="shared" ref="S50:AH50" si="47">+S41/S34</f>
+        <v>0.69882926404665535</v>
+      </c>
+      <c r="T50" s="5">
+        <f t="shared" si="47"/>
+        <v>0.68017028288931614</v>
+      </c>
+      <c r="U50" s="5">
+        <f t="shared" si="47"/>
+        <v>0.68911014312383323</v>
+      </c>
+      <c r="V50" s="5">
+        <f t="shared" si="47"/>
+        <v>0.70085295121119073</v>
+      </c>
+      <c r="W50" s="5">
+        <f t="shared" si="47"/>
+        <v>0.70039506324074363</v>
+      </c>
+      <c r="X50" s="5">
+        <f t="shared" si="47"/>
+        <v>0.69840783833435394</v>
+      </c>
+      <c r="Y50" s="5">
+        <f t="shared" si="47"/>
+        <v>0.70109267534781106</v>
+      </c>
+      <c r="Z50" s="5">
+        <f t="shared" si="47"/>
+        <v>0.70490664465018316</v>
+      </c>
+      <c r="AA50" s="5">
+        <f t="shared" si="47"/>
+        <v>0.70854725171153854</v>
+      </c>
+      <c r="AB50" s="5">
+        <f t="shared" si="47"/>
+        <v>0.71202237663374135</v>
+      </c>
+      <c r="AC50" s="5">
+        <f t="shared" si="47"/>
+        <v>0.71533954133220756</v>
+      </c>
+      <c r="AD50" s="5">
+        <f t="shared" si="47"/>
+        <v>0.71850592581710726</v>
+      </c>
+      <c r="AE50" s="5">
+        <f t="shared" si="47"/>
+        <v>0.72152838373451145</v>
+      </c>
+      <c r="AF50" s="5">
+        <f t="shared" si="47"/>
+        <v>0.7244134572011246</v>
+      </c>
+      <c r="AG50" s="5">
+        <f t="shared" si="47"/>
+        <v>0.72716739096470984</v>
+      </c>
+      <c r="AH50" s="5">
+        <f t="shared" si="47"/>
+        <v>0.7297961459208594</v>
+      </c>
       <c r="AJ50" s="2" t="s">
         <v>22</v>
       </c>
       <c r="AK50" s="5">
         <v>-0.01</v>
       </c>
-      <c r="AL50" s="8"/>
-      <c r="AM50" s="8"/>
-      <c r="AN50" s="8"/>
     </row>
     <row r="51" spans="2:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B51" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C51" s="5">
-        <f t="shared" ref="C51:O51" si="36">+C41/C34</f>
-        <v>0.72559852670349911</v>
+        <f t="shared" ref="C51:O51" si="48">+C46/C34</f>
+        <v>0.62884261226802662</v>
       </c>
       <c r="D51" s="5">
-        <f t="shared" si="36"/>
-        <v>0.69675893726526639</v>
+        <f t="shared" si="48"/>
+        <v>0.55473640283766867</v>
       </c>
       <c r="E51" s="5">
-        <f t="shared" si="36"/>
-        <v>0.7003436426116838</v>
+        <f t="shared" si="48"/>
+        <v>0.61429553264604808</v>
       </c>
       <c r="F51" s="5">
-        <f t="shared" si="36"/>
-        <v>0.68267625529729037</v>
+        <f t="shared" si="48"/>
+        <v>0.55579812508026194</v>
       </c>
       <c r="G51" s="5">
-        <f t="shared" si="36"/>
-        <v>0.71156754032258063</v>
+        <f t="shared" si="48"/>
+        <v>0.61403729838709675</v>
       </c>
       <c r="H51" s="5">
-        <f t="shared" si="36"/>
-        <v>0.69755792110206638</v>
+        <f t="shared" si="48"/>
+        <v>0.56242955541640571</v>
       </c>
       <c r="I51" s="5">
-        <f t="shared" si="36"/>
-        <v>0.70368090606918621</v>
+        <f t="shared" si="48"/>
+        <v>0.5968238335590299</v>
       </c>
       <c r="J51" s="5">
-        <f t="shared" si="36"/>
-        <v>0.68834940178882564</v>
+        <f t="shared" si="48"/>
+        <v>0.60866535021489143</v>
       </c>
       <c r="K51" s="5">
-        <f t="shared" si="36"/>
-        <v>0.71924947880472545</v>
+        <f t="shared" si="48"/>
+        <v>0.61767431086402591</v>
       </c>
       <c r="L51" s="5">
-        <f t="shared" si="36"/>
-        <v>0.6875213675213675</v>
+        <f t="shared" si="48"/>
+        <v>0.56603988603988609</v>
       </c>
       <c r="M51" s="5">
-        <f t="shared" si="36"/>
-        <v>0.69831460674157309</v>
+        <f t="shared" si="48"/>
+        <v>0.57853932584269663</v>
       </c>
       <c r="N51" s="5">
-        <f t="shared" si="36"/>
-        <v>0.68971612769054802</v>
+        <f t="shared" si="48"/>
+        <v>0.58251013829676612</v>
       </c>
       <c r="O51" s="5">
-        <f t="shared" si="36"/>
-        <v>0.68980021030494221</v>
+        <f t="shared" si="48"/>
+        <v>0.5916929547844374</v>
+      </c>
+      <c r="P51" s="5">
+        <f t="shared" ref="P51" si="49">+P46/P34</f>
+        <v>0.62956014175526376</v>
       </c>
       <c r="S51" s="5">
-        <f t="shared" ref="S51:AH51" si="37">+S41/S34</f>
-        <v>0.69882926404665535</v>
+        <f t="shared" ref="S51:AH51" si="50">+S46/S34</f>
+        <v>0.5717021369195282</v>
       </c>
       <c r="T51" s="5">
-        <f t="shared" si="37"/>
-        <v>0.68017028288931614</v>
+        <f t="shared" si="50"/>
+        <v>0.53300375354756024</v>
       </c>
       <c r="U51" s="5">
-        <f t="shared" si="37"/>
-        <v>0.68911014312383323</v>
+        <f t="shared" si="50"/>
+        <v>0.54420244762497405</v>
       </c>
       <c r="V51" s="5">
-        <f t="shared" si="37"/>
-        <v>0.70085295121119073</v>
+        <f t="shared" si="50"/>
+        <v>0.57877857386557485</v>
       </c>
       <c r="W51" s="5">
-        <f t="shared" si="37"/>
-        <v>0.70039506324074363</v>
+        <f t="shared" si="50"/>
+        <v>0.58625547422901414</v>
       </c>
       <c r="X51" s="5">
-        <f t="shared" si="37"/>
-        <v>0.69840783833435394</v>
+        <f t="shared" si="50"/>
+        <v>0.59118744085063746</v>
       </c>
       <c r="Y51" s="5">
-        <f t="shared" si="37"/>
-        <v>0.70258051014327805</v>
+        <f t="shared" si="50"/>
+        <v>0.56493274559321438</v>
       </c>
       <c r="Z51" s="5">
-        <f t="shared" si="37"/>
-        <v>0.70658831974916891</v>
+        <f t="shared" si="50"/>
+        <v>0.56717457252580261</v>
       </c>
       <c r="AA51" s="5">
-        <f t="shared" si="37"/>
-        <v>0.71043915995602624</v>
+        <f t="shared" si="50"/>
+        <v>0.58896165564803815</v>
       </c>
       <c r="AB51" s="5">
-        <f t="shared" si="37"/>
-        <v>0.71281170480330103</v>
+        <f t="shared" si="50"/>
+        <v>0.60969273812947389</v>
       </c>
       <c r="AC51" s="5">
-        <f t="shared" si="37"/>
-        <v>0.71512772196163588</v>
+        <f t="shared" si="50"/>
+        <v>0.62941940247272954</v>
       </c>
       <c r="AD51" s="5">
-        <f t="shared" si="37"/>
-        <v>0.71738876331783485</v>
+        <f t="shared" si="50"/>
+        <v>0.64819069111356997</v>
       </c>
       <c r="AE51" s="5">
-        <f t="shared" si="37"/>
-        <v>0.7195963326848267</v>
+        <f t="shared" si="50"/>
+        <v>0.66605323253708826</v>
       </c>
       <c r="AF51" s="5">
-        <f t="shared" si="37"/>
-        <v>0.72120545146743675</v>
+        <f t="shared" si="50"/>
+        <v>0.68305136107995668</v>
       </c>
       <c r="AG51" s="5">
-        <f t="shared" si="37"/>
-        <v>0.72278662231878776</v>
+        <f t="shared" si="50"/>
+        <v>0.6992272307374543</v>
       </c>
       <c r="AH51" s="5">
-        <f t="shared" si="37"/>
-        <v>0.72434038192499284</v>
+        <f t="shared" si="50"/>
+        <v>0.71462092327776439</v>
       </c>
       <c r="AJ51" s="2" t="s">
         <v>20</v>
@@ -4178,694 +4296,649 @@
     </row>
     <row r="52" spans="2:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B52" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C52" s="5">
-        <f t="shared" ref="C52:O52" si="38">+C46/C34</f>
-        <v>0.62884261226802662</v>
+        <f t="shared" ref="C52:O52" si="51">+C45/C44</f>
+        <v>0.17444671750046495</v>
       </c>
       <c r="D52" s="5">
-        <f t="shared" si="38"/>
-        <v>0.55473640283766867</v>
+        <f t="shared" si="51"/>
+        <v>0.18328896170387057</v>
       </c>
       <c r="E52" s="5">
-        <f t="shared" si="38"/>
-        <v>0.61429553264604808</v>
+        <f t="shared" si="51"/>
+        <v>8.5533046859013709E-2</v>
       </c>
       <c r="F52" s="5">
-        <f t="shared" si="38"/>
-        <v>0.55579812508026194</v>
+        <f t="shared" si="51"/>
+        <v>0.17656012176560121</v>
       </c>
       <c r="G52" s="5">
-        <f t="shared" si="38"/>
-        <v>0.61403729838709675</v>
+        <f t="shared" si="51"/>
+        <v>0.14071592311761594</v>
       </c>
       <c r="H52" s="5">
-        <f t="shared" si="38"/>
-        <v>0.56242955541640571</v>
+        <f t="shared" si="51"/>
+        <v>0.18523222060957911</v>
       </c>
       <c r="I52" s="5">
-        <f t="shared" si="38"/>
-        <v>0.5968238335590299</v>
+        <f t="shared" si="51"/>
+        <v>0.16957862281603289</v>
       </c>
       <c r="J52" s="5">
-        <f t="shared" si="38"/>
-        <v>0.60866535021489143</v>
+        <f t="shared" si="51"/>
+        <v>0.15415657788539144</v>
       </c>
       <c r="K52" s="5">
-        <f t="shared" si="38"/>
-        <v>0.61767431086402591</v>
+        <f t="shared" si="51"/>
+        <v>0.17764070932922127</v>
       </c>
       <c r="L52" s="5">
-        <f t="shared" si="38"/>
-        <v>0.56603988603988609</v>
+        <f t="shared" si="51"/>
+        <v>0.18359631821170283</v>
       </c>
       <c r="M52" s="5">
-        <f t="shared" si="38"/>
-        <v>0.57853932584269663</v>
+        <f t="shared" si="51"/>
+        <v>0.17826364506862433</v>
       </c>
       <c r="N52" s="5">
-        <f t="shared" si="38"/>
-        <v>0.58251013829676612</v>
+        <f t="shared" si="51"/>
+        <v>0.15835336538461539</v>
       </c>
       <c r="O52" s="5">
-        <f t="shared" si="38"/>
-        <v>0.5916929547844374</v>
+        <f t="shared" si="51"/>
+        <v>0.16115086463923672</v>
+      </c>
+      <c r="P52" s="5">
+        <f t="shared" ref="P52" si="52">+P45/P44</f>
+        <v>0.12476452688016229</v>
       </c>
       <c r="S52" s="5">
-        <f t="shared" ref="S52:AH52" si="39">+S46/S34</f>
-        <v>0.5717021369195282</v>
+        <f t="shared" ref="S52:AH52" si="53">+S45/S44</f>
+        <v>0.17590966122961105</v>
       </c>
       <c r="T52" s="5">
-        <f t="shared" si="39"/>
-        <v>0.53300375354756024</v>
+        <f t="shared" si="53"/>
+        <v>0.20071389346512905</v>
       </c>
       <c r="U52" s="5">
-        <f t="shared" si="39"/>
-        <v>0.54420244762497405</v>
+        <f t="shared" si="53"/>
+        <v>0.22240663900414936</v>
       </c>
       <c r="V52" s="5">
-        <f t="shared" si="39"/>
-        <v>0.57877857386557485</v>
+        <f t="shared" si="53"/>
+        <v>0.15782157573350544</v>
       </c>
       <c r="W52" s="5">
-        <f t="shared" si="39"/>
-        <v>0.58625547422901414</v>
+        <f t="shared" si="53"/>
+        <v>0.16431658445016806</v>
       </c>
       <c r="X52" s="5">
-        <f t="shared" si="39"/>
-        <v>0.59118744085063746</v>
+        <f t="shared" si="53"/>
+        <v>0.16421375728002519</v>
       </c>
       <c r="Y52" s="5">
-        <f t="shared" si="39"/>
-        <v>0.56649446908356882</v>
+        <f t="shared" si="53"/>
+        <v>0.2</v>
       </c>
       <c r="Z52" s="5">
-        <f t="shared" si="39"/>
-        <v>0.56890981988811484</v>
+        <f t="shared" si="53"/>
+        <v>0.2</v>
       </c>
       <c r="AA52" s="5">
-        <f t="shared" si="39"/>
-        <v>0.59160647322806559</v>
+        <f t="shared" si="53"/>
+        <v>0.2</v>
       </c>
       <c r="AB52" s="5">
-        <f t="shared" si="39"/>
-        <v>0.61417260593060963</v>
+        <f t="shared" si="53"/>
+        <v>0.2</v>
       </c>
       <c r="AC52" s="5">
-        <f t="shared" si="39"/>
-        <v>0.63656898359330227</v>
+        <f t="shared" si="53"/>
+        <v>0.2</v>
       </c>
       <c r="AD52" s="5">
-        <f t="shared" si="39"/>
-        <v>0.65879631100448277</v>
+        <f t="shared" si="53"/>
+        <v>0.2</v>
       </c>
       <c r="AE52" s="5">
-        <f t="shared" si="39"/>
-        <v>0.68085530690061768</v>
+        <f t="shared" si="53"/>
+        <v>0.2</v>
       </c>
       <c r="AF52" s="5">
-        <f t="shared" si="39"/>
-        <v>0.70505412139606694</v>
+        <f t="shared" si="53"/>
+        <v>0.2</v>
       </c>
       <c r="AG52" s="5">
-        <f t="shared" si="39"/>
-        <v>0.72950301152295272</v>
+        <f t="shared" si="53"/>
+        <v>0.2</v>
       </c>
       <c r="AH52" s="5">
-        <f t="shared" si="39"/>
-        <v>0.75420418333498507</v>
+        <f t="shared" si="53"/>
+        <v>0.19999999999999998</v>
       </c>
       <c r="AJ52" s="2" t="s">
         <v>18</v>
       </c>
       <c r="AK52" s="2">
         <f>+NPV(AK51,Y46:EK46)+Main!L6-Main!L7</f>
-        <v>442158.76902751205</v>
+        <v>591264.04241820285</v>
       </c>
     </row>
     <row r="53" spans="2:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B53" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C53" s="5">
-        <f t="shared" ref="C53:O53" si="40">+C45/C44</f>
-        <v>0.17444671750046495</v>
-      </c>
-      <c r="D53" s="5">
-        <f t="shared" si="40"/>
-        <v>0.18328896170387057</v>
-      </c>
-      <c r="E53" s="5">
-        <f t="shared" si="40"/>
-        <v>8.5533046859013709E-2</v>
-      </c>
-      <c r="F53" s="5">
-        <f t="shared" si="40"/>
-        <v>0.17656012176560121</v>
-      </c>
-      <c r="G53" s="5">
-        <f t="shared" si="40"/>
-        <v>0.14071592311761594</v>
-      </c>
-      <c r="H53" s="5">
-        <f t="shared" si="40"/>
-        <v>0.18523222060957911</v>
-      </c>
-      <c r="I53" s="5">
-        <f t="shared" si="40"/>
-        <v>0.16957862281603289</v>
-      </c>
-      <c r="J53" s="5">
-        <f t="shared" si="40"/>
-        <v>0.15415657788539144</v>
-      </c>
-      <c r="K53" s="5">
-        <f t="shared" si="40"/>
-        <v>0.17764070932922127</v>
-      </c>
-      <c r="L53" s="5">
-        <f t="shared" si="40"/>
-        <v>0.18359631821170283</v>
-      </c>
-      <c r="M53" s="5">
-        <f t="shared" si="40"/>
-        <v>0.17826364506862433</v>
-      </c>
-      <c r="N53" s="5">
-        <f t="shared" si="40"/>
-        <v>0.15835336538461539</v>
-      </c>
-      <c r="O53" s="5">
-        <f t="shared" si="40"/>
-        <v>0.16115086463923672</v>
-      </c>
-      <c r="S53" s="5">
-        <f t="shared" ref="S53:AH53" si="41">+S45/S44</f>
-        <v>0.17590966122961105</v>
-      </c>
-      <c r="T53" s="5">
-        <f t="shared" si="41"/>
-        <v>0.20071389346512905</v>
-      </c>
-      <c r="U53" s="5">
-        <f t="shared" si="41"/>
-        <v>0.22240663900414936</v>
-      </c>
-      <c r="V53" s="5">
-        <f t="shared" si="41"/>
-        <v>0.15782157573350544</v>
-      </c>
-      <c r="W53" s="5">
-        <f t="shared" si="41"/>
-        <v>0.16431658445016806</v>
-      </c>
-      <c r="X53" s="5">
-        <f t="shared" si="41"/>
-        <v>0.16421375728002519</v>
-      </c>
-      <c r="Y53" s="5">
-        <f t="shared" si="41"/>
-        <v>0.2</v>
-      </c>
-      <c r="Z53" s="5">
-        <f t="shared" si="41"/>
-        <v>0.2</v>
-      </c>
-      <c r="AA53" s="5">
-        <f t="shared" si="41"/>
-        <v>0.2</v>
-      </c>
-      <c r="AB53" s="5">
-        <f t="shared" si="41"/>
-        <v>0.2</v>
-      </c>
-      <c r="AC53" s="5">
-        <f t="shared" si="41"/>
-        <v>0.2</v>
-      </c>
-      <c r="AD53" s="5">
-        <f t="shared" si="41"/>
-        <v>0.2</v>
-      </c>
-      <c r="AE53" s="5">
-        <f t="shared" si="41"/>
-        <v>0.2</v>
-      </c>
-      <c r="AF53" s="5">
-        <f t="shared" si="41"/>
-        <v>0.2</v>
-      </c>
-      <c r="AG53" s="5">
-        <f t="shared" si="41"/>
-        <v>0.2</v>
-      </c>
-      <c r="AH53" s="5">
-        <f t="shared" si="41"/>
-        <v>0.2</v>
-      </c>
       <c r="AJ53" s="2" t="s">
         <v>2</v>
       </c>
       <c r="AK53" s="2">
         <f>+AK52/Main!L4</f>
-        <v>255.19912660032372</v>
-      </c>
-    </row>
-    <row r="54" spans="2:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
+        <v>298.16643591437361</v>
+      </c>
+    </row>
+    <row r="54" spans="2:40" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B54" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G54" s="7">
+        <f t="shared" ref="G54:P54" si="54">+G34/C34-1</f>
+        <v>0.12423856070264905</v>
+      </c>
+      <c r="H54" s="7">
+        <f t="shared" si="54"/>
+        <v>0.11072471831965514</v>
+      </c>
+      <c r="I54" s="7">
+        <f t="shared" si="54"/>
+        <v>0.11656357388316141</v>
+      </c>
+      <c r="J54" s="7">
+        <f t="shared" si="54"/>
+        <v>0.1055605496340053</v>
+      </c>
+      <c r="K54" s="7">
+        <f t="shared" si="54"/>
+        <v>8.7953629032258007E-2</v>
+      </c>
+      <c r="L54" s="7">
+        <f t="shared" si="54"/>
+        <v>9.8935504070131408E-2</v>
+      </c>
+      <c r="M54" s="7">
+        <f t="shared" si="54"/>
+        <v>9.5654314908285132E-2</v>
+      </c>
+      <c r="N54" s="7">
+        <f t="shared" si="54"/>
+        <v>0.11708676965965847</v>
+      </c>
+      <c r="O54" s="7">
+        <f t="shared" si="54"/>
+        <v>0.10145934676858936</v>
+      </c>
+      <c r="P54" s="7">
+        <f t="shared" si="54"/>
+        <v>9.3333333333333268E-2</v>
+      </c>
+      <c r="T54" s="7">
+        <f t="shared" ref="T54:AH54" si="55">+T34/S34-1</f>
+        <v>-4.92231361796579E-2</v>
+      </c>
+      <c r="U54" s="7">
+        <f t="shared" si="55"/>
+        <v>0.10340565778632249</v>
+      </c>
+      <c r="V54" s="7">
+        <f t="shared" si="55"/>
+        <v>0.21593030491599263</v>
+      </c>
+      <c r="W54" s="7">
+        <f t="shared" si="55"/>
+        <v>0.11405663596042315</v>
+      </c>
+      <c r="X54" s="7">
+        <f t="shared" si="55"/>
+        <v>0.10023581294214923</v>
+      </c>
+      <c r="Y54" s="7">
+        <f t="shared" si="55"/>
+        <v>0.10000000000000009</v>
+      </c>
+      <c r="Z54" s="7">
+        <f t="shared" si="55"/>
+        <v>0.10000000000000009</v>
+      </c>
+      <c r="AA54" s="7">
+        <f t="shared" si="55"/>
+        <v>0.10000000000000009</v>
+      </c>
+      <c r="AB54" s="7">
+        <f t="shared" si="55"/>
+        <v>0.10000000000000009</v>
+      </c>
+      <c r="AC54" s="7">
+        <f t="shared" si="55"/>
+        <v>0.10000000000000009</v>
+      </c>
+      <c r="AD54" s="7">
+        <f t="shared" si="55"/>
+        <v>0.10000000000000009</v>
+      </c>
+      <c r="AE54" s="7">
+        <f t="shared" si="55"/>
+        <v>0.10000000000000009</v>
+      </c>
+      <c r="AF54" s="7">
+        <f t="shared" si="55"/>
+        <v>0.10000000000000009</v>
+      </c>
+      <c r="AG54" s="7">
+        <f t="shared" si="55"/>
+        <v>0.10000000000000009</v>
+      </c>
+      <c r="AH54" s="7">
+        <f t="shared" si="55"/>
+        <v>0.10000000000000009</v>
+      </c>
       <c r="AJ54" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AK54" s="5">
-        <f>+AK53/Main!L3</f>
-        <v>0.7617884376129066</v>
-      </c>
-    </row>
-    <row r="55" spans="2:40" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B55" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G55" s="7">
-        <f t="shared" ref="G55:O55" si="42">+G34/C34-1</f>
-        <v>0.12423856070264905</v>
-      </c>
-      <c r="H55" s="7">
-        <f t="shared" si="42"/>
-        <v>0.11072471831965514</v>
-      </c>
-      <c r="I55" s="7">
-        <f t="shared" si="42"/>
-        <v>0.11656357388316141</v>
-      </c>
-      <c r="J55" s="7">
-        <f t="shared" si="42"/>
-        <v>0.1055605496340053</v>
-      </c>
-      <c r="K55" s="7">
-        <f t="shared" si="42"/>
-        <v>8.7953629032258007E-2</v>
-      </c>
-      <c r="L55" s="7">
-        <f t="shared" si="42"/>
-        <v>9.8935504070131408E-2</v>
-      </c>
-      <c r="M55" s="7">
-        <f t="shared" si="42"/>
-        <v>9.5654314908285132E-2</v>
-      </c>
-      <c r="N55" s="7">
-        <f t="shared" si="42"/>
-        <v>0.11708676965965847</v>
-      </c>
-      <c r="O55" s="7">
-        <f t="shared" si="42"/>
-        <v>0.10145934676858936</v>
-      </c>
-      <c r="T55" s="7">
-        <f t="shared" ref="T55:AH55" si="43">+T34/S34-1</f>
-        <v>-4.92231361796579E-2</v>
-      </c>
-      <c r="U55" s="7">
-        <f t="shared" si="43"/>
-        <v>0.10340565778632249</v>
-      </c>
-      <c r="V55" s="7">
-        <f t="shared" si="43"/>
-        <v>0.21593030491599263</v>
-      </c>
-      <c r="W55" s="7">
-        <f t="shared" si="43"/>
-        <v>0.11405663596042315</v>
-      </c>
-      <c r="X55" s="7">
-        <f t="shared" si="43"/>
-        <v>0.10023581294214923</v>
-      </c>
-      <c r="Y55" s="7">
-        <f t="shared" si="43"/>
-        <v>8.0000000000000071E-2</v>
-      </c>
-      <c r="Z55" s="7">
-        <f t="shared" si="43"/>
-        <v>8.0000000000000071E-2</v>
-      </c>
-      <c r="AA55" s="7">
-        <f t="shared" si="43"/>
-        <v>8.0000000000000071E-2</v>
-      </c>
-      <c r="AB55" s="7">
-        <f t="shared" si="43"/>
-        <v>5.0000000000000044E-2</v>
-      </c>
-      <c r="AC55" s="7">
-        <f t="shared" si="43"/>
-        <v>5.0000000000000044E-2</v>
-      </c>
-      <c r="AD55" s="7">
-        <f t="shared" si="43"/>
-        <v>5.0000000000000044E-2</v>
-      </c>
-      <c r="AE55" s="7">
-        <f t="shared" si="43"/>
-        <v>5.0000000000000044E-2</v>
-      </c>
-      <c r="AF55" s="7">
-        <f t="shared" si="43"/>
-        <v>3.0000000000000027E-2</v>
-      </c>
-      <c r="AG55" s="7">
-        <f t="shared" si="43"/>
-        <v>3.0000000000000027E-2</v>
-      </c>
-      <c r="AH55" s="7">
-        <f t="shared" si="43"/>
-        <v>3.0000000000000027E-2</v>
-      </c>
-      <c r="AJ55" s="5"/>
-      <c r="AK55" s="6"/>
+        <f>+AK53/Main!L3-1</f>
+        <v>-0.13574946111775765</v>
+      </c>
+    </row>
+    <row r="55" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="X55" s="5"/>
+      <c r="AJ55" s="2"/>
+      <c r="AK55" s="2"/>
     </row>
     <row r="56" spans="2:40" x14ac:dyDescent="0.2">
-      <c r="X56" s="5"/>
+      <c r="B56" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C56" s="5"/>
+      <c r="D56" s="5"/>
+      <c r="E56" s="5"/>
+      <c r="F56" s="5"/>
+      <c r="L56" s="2">
+        <f>+L57-L73</f>
+        <v>1776</v>
+      </c>
+      <c r="M56" s="2">
+        <f>+M57-M73</f>
+        <v>675</v>
+      </c>
+      <c r="N56" s="2">
+        <f>+N57-N73</f>
+        <v>-27</v>
+      </c>
+      <c r="O56" s="2">
+        <f>+O57-O73</f>
+        <v>-1406</v>
+      </c>
+      <c r="P56" s="2">
+        <f>+P57-P73</f>
+        <v>-2615</v>
+      </c>
+      <c r="X56" s="2">
+        <f>+X57-X73</f>
+        <v>-27</v>
+      </c>
+      <c r="Y56" s="2">
+        <f>+O56+Y46</f>
+        <v>20919.351200000005</v>
+      </c>
+      <c r="Z56" s="2">
+        <f t="shared" ref="Z56:AH56" si="56">+Y56+Z46</f>
+        <v>45574.690768000008</v>
+      </c>
+      <c r="AA56" s="2">
+        <f t="shared" si="56"/>
+        <v>73737.368270720006</v>
+      </c>
+      <c r="AB56" s="2">
+        <f t="shared" si="56"/>
+        <v>105806.75305074881</v>
+      </c>
+      <c r="AC56" s="2">
+        <f t="shared" si="56"/>
+        <v>142224.44497639878</v>
+      </c>
+      <c r="AD56" s="2">
+        <f t="shared" si="56"/>
+        <v>183478.60664641176</v>
+      </c>
+      <c r="AE56" s="2">
+        <f t="shared" si="56"/>
+        <v>230108.73405164471</v>
+      </c>
+      <c r="AF56" s="2">
+        <f t="shared" si="56"/>
+        <v>282710.90979241458</v>
+      </c>
+      <c r="AG56" s="2">
+        <f t="shared" si="56"/>
+        <v>341943.58737234503</v>
+      </c>
+      <c r="AH56" s="2">
+        <f t="shared" si="56"/>
+        <v>408533.95995453856</v>
+      </c>
+      <c r="AI56" s="2"/>
       <c r="AJ56" s="2"/>
       <c r="AK56" s="2"/>
-    </row>
-    <row r="57" spans="2:40" x14ac:dyDescent="0.2">
-      <c r="B57" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C57" s="5"/>
-      <c r="D57" s="5"/>
-      <c r="E57" s="5"/>
-      <c r="F57" s="5"/>
+      <c r="AL56" s="2"/>
+      <c r="AM56" s="2"/>
+      <c r="AN56" s="2"/>
+    </row>
+    <row r="57" spans="2:40" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B57" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="L57" s="2">
-        <f>+L58-L74</f>
-        <v>1776</v>
+        <f>12993+1584+4710+3092</f>
+        <v>22379</v>
       </c>
       <c r="M57" s="2">
-        <f>+M58-M74</f>
-        <v>675</v>
+        <f>12947+1596+3697+3037</f>
+        <v>21277</v>
       </c>
       <c r="N57" s="2">
-        <f>+N58-N74</f>
-        <v>-27</v>
+        <f>11975+3089+3200+2545</f>
+        <v>20809</v>
       </c>
       <c r="O57" s="2">
-        <f>+O58-O74</f>
-        <v>-1406</v>
+        <f>12367+3112+1967+1757</f>
+        <v>19203</v>
+      </c>
+      <c r="P57" s="2">
+        <f>11734+2926+2017+1470</f>
+        <v>18147</v>
       </c>
       <c r="X57" s="2">
-        <f>+X58-X74</f>
-        <v>-27</v>
-      </c>
-      <c r="Y57" s="2">
-        <f>+O57+Y46</f>
-        <v>20574.030719999999</v>
-      </c>
-      <c r="Z57" s="2">
-        <f t="shared" ref="Z57:AH57" si="44">+Y57+Z46</f>
-        <v>44413.676966400002</v>
-      </c>
-      <c r="AA57" s="2">
-        <f t="shared" si="44"/>
-        <v>71187.664036864007</v>
-      </c>
-      <c r="AB57" s="2">
-        <f t="shared" si="44"/>
-        <v>100372.67580071298</v>
-      </c>
-      <c r="AC57" s="2">
-        <f t="shared" si="44"/>
-        <v>132134.4097986788</v>
-      </c>
-      <c r="AD57" s="2">
-        <f t="shared" si="44"/>
-        <v>166648.71918961624</v>
-      </c>
-      <c r="AE57" s="2">
-        <f t="shared" si="44"/>
-        <v>204102.19735322299</v>
-      </c>
-      <c r="AF57" s="2">
-        <f t="shared" si="44"/>
-        <v>244050.3783226558</v>
-      </c>
-      <c r="AG57" s="2">
-        <f t="shared" si="44"/>
-        <v>286623.83043196582</v>
-      </c>
-      <c r="AH57" s="2">
-        <f t="shared" si="44"/>
-        <v>331959.28131818643</v>
-      </c>
-      <c r="AI57" s="2"/>
-      <c r="AJ57" s="2"/>
-      <c r="AK57" s="2"/>
-      <c r="AL57" s="2"/>
-      <c r="AM57" s="2"/>
-      <c r="AN57" s="2"/>
+        <f>11975+3089+3200+2545</f>
+        <v>20809</v>
+      </c>
     </row>
     <row r="58" spans="2:40" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B58" s="2" t="s">
-        <v>4</v>
+        <v>105</v>
       </c>
       <c r="L58" s="2">
-        <f>12993+1584+4710+3092</f>
-        <v>22379</v>
+        <v>3558</v>
       </c>
       <c r="M58" s="2">
-        <f>12947+1596+3697+3037</f>
-        <v>21277</v>
+        <v>2128</v>
       </c>
       <c r="N58" s="2">
-        <f>11975+3089+3200+2545</f>
-        <v>20809</v>
+        <v>4454</v>
       </c>
       <c r="O58" s="2">
-        <f>12367+3112+1967+1757</f>
-        <v>19203</v>
+        <v>3683</v>
+      </c>
+      <c r="P58" s="2">
+        <v>4244</v>
       </c>
       <c r="X58" s="2">
-        <f>11975+3089+3200+2545</f>
-        <v>20809</v>
+        <v>4454</v>
       </c>
     </row>
     <row r="59" spans="2:40" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B59" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="L59" s="2">
-        <v>3558</v>
+        <v>2272</v>
       </c>
       <c r="M59" s="2">
-        <v>2128</v>
+        <v>2521</v>
       </c>
       <c r="N59" s="2">
-        <v>4454</v>
+        <v>2561</v>
       </c>
       <c r="O59" s="2">
-        <v>3683</v>
+        <v>2590</v>
+      </c>
+      <c r="P59" s="2">
+        <v>2719</v>
       </c>
       <c r="X59" s="2">
-        <v>4454</v>
+        <v>2561</v>
       </c>
     </row>
     <row r="60" spans="2:40" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B60" s="2" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="L60" s="2">
-        <v>2272</v>
+        <v>3367</v>
       </c>
       <c r="M60" s="2">
-        <v>2521</v>
+        <v>3472</v>
       </c>
       <c r="N60" s="2">
-        <v>2561</v>
+        <v>3524</v>
       </c>
       <c r="O60" s="2">
-        <v>2590</v>
+        <v>3518</v>
+      </c>
+      <c r="P60" s="2">
+        <v>3543</v>
       </c>
       <c r="X60" s="2">
-        <v>2561</v>
+        <v>3524</v>
       </c>
     </row>
     <row r="61" spans="2:40" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B61" s="2" t="s">
-        <v>108</v>
+        <v>81</v>
       </c>
       <c r="L61" s="2">
-        <v>3367</v>
+        <f>1740+3998</f>
+        <v>5738</v>
       </c>
       <c r="M61" s="2">
-        <v>3472</v>
+        <f>1821+4133</f>
+        <v>5954</v>
       </c>
       <c r="N61" s="2">
-        <v>3524</v>
+        <f>1918+4628</f>
+        <v>6546</v>
       </c>
       <c r="O61" s="2">
-        <v>3518</v>
+        <f>1992+4631</f>
+        <v>6623</v>
+      </c>
+      <c r="P61" s="2">
+        <f>2175+4760</f>
+        <v>6935</v>
       </c>
       <c r="X61" s="2">
-        <v>3524</v>
+        <f>1918+4628</f>
+        <v>6546</v>
       </c>
     </row>
     <row r="62" spans="2:40" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B62" s="2" t="s">
-        <v>82</v>
+        <v>15</v>
       </c>
       <c r="L62" s="2">
-        <f>1740+3998</f>
-        <v>5738</v>
+        <v>2551</v>
       </c>
       <c r="M62" s="2">
-        <f>1821+4133</f>
-        <v>5954</v>
+        <v>2857</v>
       </c>
       <c r="N62" s="2">
-        <f>1918+4628</f>
-        <v>6546</v>
+        <v>3312</v>
       </c>
       <c r="O62" s="2">
-        <f>1992+4631</f>
-        <v>6623</v>
+        <v>3393</v>
+      </c>
+      <c r="P62" s="2">
+        <v>3576</v>
       </c>
       <c r="X62" s="2">
-        <f>1918+4628</f>
-        <v>6546</v>
+        <v>3312</v>
       </c>
     </row>
     <row r="63" spans="2:40" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B63" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L63" s="2">
-        <v>2551</v>
+        <v>3630</v>
       </c>
       <c r="M63" s="2">
-        <v>2857</v>
+        <v>3766</v>
       </c>
       <c r="N63" s="2">
-        <v>3312</v>
+        <v>3824</v>
       </c>
       <c r="O63" s="2">
-        <v>3393</v>
+        <v>3974</v>
+      </c>
+      <c r="P63" s="2">
+        <v>4023</v>
       </c>
       <c r="X63" s="2">
-        <v>3312</v>
+        <v>3824</v>
       </c>
     </row>
     <row r="64" spans="2:40" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B64" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L64" s="2">
-        <v>3630</v>
+        <f>18837+26375</f>
+        <v>45212</v>
       </c>
       <c r="M64" s="2">
-        <v>3766</v>
+        <f>18816+26243</f>
+        <v>45059</v>
       </c>
       <c r="N64" s="2">
-        <v>3824</v>
+        <f>18941+26889</f>
+        <v>45830</v>
       </c>
       <c r="O64" s="2">
-        <v>3974</v>
+        <f>19548+25889</f>
+        <v>45437</v>
+      </c>
+      <c r="P64" s="2">
+        <f>19641+26408</f>
+        <v>46049</v>
       </c>
       <c r="X64" s="2">
-        <v>3824</v>
+        <f>18941+26889</f>
+        <v>45830</v>
       </c>
     </row>
     <row r="65" spans="2:37" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B65" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L65" s="2">
-        <f>18837+26375</f>
-        <v>45212</v>
+        <v>3692</v>
       </c>
       <c r="M65" s="2">
-        <f>18816+26243</f>
-        <v>45059</v>
+        <v>4006</v>
       </c>
       <c r="N65" s="2">
-        <f>18941+26889</f>
-        <v>45830</v>
+        <v>3651</v>
       </c>
       <c r="O65" s="2">
-        <f>19548+25889</f>
-        <v>45437</v>
+        <v>3467</v>
+      </c>
+      <c r="P65" s="2">
+        <v>3617</v>
       </c>
       <c r="X65" s="2">
-        <f>18941+26889</f>
-        <v>45830</v>
-      </c>
-    </row>
-    <row r="66" spans="2:37" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B66" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="L66" s="2">
-        <v>3692</v>
-      </c>
-      <c r="M66" s="2">
-        <v>4006</v>
-      </c>
-      <c r="N66" s="2">
         <v>3651</v>
       </c>
-      <c r="O66" s="2">
-        <v>3467</v>
-      </c>
-      <c r="X66" s="2">
-        <v>3651</v>
-      </c>
-      <c r="AJ66" s="4"/>
-      <c r="AK66" s="4"/>
-    </row>
-    <row r="67" spans="2:37" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B67" s="4" t="s">
+      <c r="AJ65" s="4"/>
+      <c r="AK65" s="4"/>
+    </row>
+    <row r="66" spans="2:37" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B66" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="L67" s="4">
-        <f>+SUM(L58:L66)</f>
+      <c r="L66" s="4">
+        <f>+SUM(L57:L65)</f>
         <v>92399</v>
       </c>
-      <c r="M67" s="4">
-        <f>+SUM(M58:M66)</f>
+      <c r="M66" s="4">
+        <f>+SUM(M57:M65)</f>
         <v>91040</v>
       </c>
-      <c r="N67" s="4">
-        <f>+SUM(N58:N66)</f>
+      <c r="N66" s="4">
+        <f>+SUM(N57:N65)</f>
         <v>94511</v>
       </c>
-      <c r="O67" s="4">
-        <f>+SUM(O58:O66)</f>
+      <c r="O66" s="4">
+        <f>+SUM(O57:O65)</f>
         <v>91888</v>
       </c>
-      <c r="X67" s="4">
-        <f>+SUM(X58:X66)</f>
+      <c r="P66" s="4">
+        <f>+SUM(P57:P65)</f>
+        <v>92853</v>
+      </c>
+      <c r="X66" s="4">
+        <f>+SUM(X57:X65)</f>
         <v>94511</v>
       </c>
-      <c r="AJ67" s="2"/>
-      <c r="AK67" s="2"/>
+      <c r="AJ66" s="2"/>
+      <c r="AK66" s="2"/>
+    </row>
+    <row r="67" spans="2:37" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B67" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="L67" s="2">
+        <v>338</v>
+      </c>
+      <c r="M67" s="2">
+        <v>331</v>
+      </c>
+      <c r="N67" s="2">
+        <v>479</v>
+      </c>
+      <c r="O67" s="2">
+        <v>405</v>
+      </c>
+      <c r="P67" s="2">
+        <v>421</v>
+      </c>
+      <c r="X67" s="2">
+        <v>479</v>
+      </c>
     </row>
     <row r="68" spans="2:37" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B68" s="2" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="L68" s="2">
-        <v>338</v>
+        <f>4485+1853</f>
+        <v>6338</v>
       </c>
       <c r="M68" s="2">
-        <v>331</v>
+        <f>2576+1688</f>
+        <v>4264</v>
       </c>
       <c r="N68" s="2">
-        <v>479</v>
+        <f>5265+1727</f>
+        <v>6992</v>
       </c>
       <c r="O68" s="2">
-        <v>405</v>
+        <f>4425+1649</f>
+        <v>6074</v>
+      </c>
+      <c r="P68" s="2">
+        <f>4996+2076</f>
+        <v>7072</v>
       </c>
       <c r="X68" s="2">
-        <v>479</v>
+        <f>5265+1727</f>
+        <v>6992</v>
       </c>
     </row>
     <row r="69" spans="2:37" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -4873,24 +4946,22 @@
         <v>107</v>
       </c>
       <c r="L69" s="2">
-        <f>4485+1853</f>
-        <v>6338</v>
+        <v>3367</v>
       </c>
       <c r="M69" s="2">
-        <f>2576+1688</f>
-        <v>4264</v>
+        <v>3472</v>
       </c>
       <c r="N69" s="2">
-        <f>5265+1727</f>
-        <v>6992</v>
+        <v>3524</v>
       </c>
       <c r="O69" s="2">
-        <f>4425+1649</f>
-        <v>6074</v>
+        <v>3518</v>
+      </c>
+      <c r="P69" s="2">
+        <v>3543</v>
       </c>
       <c r="X69" s="2">
-        <f>5265+1727</f>
-        <v>6992</v>
+        <v>3524</v>
       </c>
     </row>
     <row r="70" spans="2:37" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -4898,591 +4969,689 @@
         <v>108</v>
       </c>
       <c r="L70" s="2">
-        <v>3367</v>
+        <v>1065</v>
       </c>
       <c r="M70" s="2">
-        <v>3472</v>
+        <v>1251</v>
       </c>
       <c r="N70" s="2">
-        <v>3524</v>
+        <v>1538</v>
       </c>
       <c r="O70" s="2">
-        <v>3518</v>
+        <v>1226</v>
+      </c>
+      <c r="P70" s="2">
+        <v>1225</v>
       </c>
       <c r="X70" s="2">
-        <v>3524</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="71" spans="2:37" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B71" s="2" t="s">
-        <v>109</v>
+        <v>81</v>
       </c>
       <c r="L71" s="2">
-        <v>1065</v>
+        <v>7949</v>
       </c>
       <c r="M71" s="2">
-        <v>1251</v>
+        <v>8562</v>
       </c>
       <c r="N71" s="2">
-        <v>1538</v>
+        <v>9075</v>
       </c>
       <c r="O71" s="2">
-        <v>1226</v>
+        <v>9249</v>
+      </c>
+      <c r="P71" s="2">
+        <v>9665</v>
       </c>
       <c r="X71" s="2">
-        <v>1538</v>
+        <v>9075</v>
       </c>
     </row>
     <row r="72" spans="2:37" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B72" s="2" t="s">
-        <v>82</v>
+        <v>138</v>
       </c>
       <c r="L72" s="2">
-        <v>7949</v>
+        <v>4386</v>
       </c>
       <c r="M72" s="2">
-        <v>8562</v>
+        <v>4732</v>
       </c>
       <c r="N72" s="2">
-        <v>9075</v>
+        <v>4909</v>
       </c>
       <c r="O72" s="2">
-        <v>9249</v>
+        <v>4690</v>
+      </c>
+      <c r="P72" s="2">
+        <v>4507</v>
       </c>
       <c r="X72" s="2">
-        <v>9075</v>
+        <v>4909</v>
       </c>
     </row>
     <row r="73" spans="2:37" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B73" s="2" t="s">
-        <v>110</v>
+        <v>5</v>
       </c>
       <c r="L73" s="2">
-        <v>4386</v>
+        <v>20603</v>
       </c>
       <c r="M73" s="2">
-        <v>4732</v>
+        <v>20602</v>
       </c>
       <c r="N73" s="2">
-        <v>4909</v>
+        <v>20836</v>
       </c>
       <c r="O73" s="2">
-        <v>4690</v>
+        <f>3929+16680</f>
+        <v>20609</v>
+      </c>
+      <c r="P73" s="2">
+        <f>3948+16814</f>
+        <v>20762</v>
       </c>
       <c r="X73" s="2">
-        <v>4909</v>
+        <v>20836</v>
       </c>
     </row>
     <row r="74" spans="2:37" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B74" s="2" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="L74" s="2">
-        <v>20603</v>
+        <v>5145</v>
       </c>
       <c r="M74" s="2">
-        <v>20602</v>
+        <v>5119</v>
       </c>
       <c r="N74" s="2">
-        <v>20836</v>
+        <v>5301</v>
       </c>
       <c r="O74" s="2">
-        <f>3929+16680</f>
-        <v>20609</v>
+        <v>5192</v>
+      </c>
+      <c r="P74" s="2">
+        <v>5160</v>
       </c>
       <c r="X74" s="2">
-        <v>20836</v>
+        <v>5301</v>
       </c>
     </row>
     <row r="75" spans="2:37" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B75" s="2" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="L75" s="2">
-        <v>5145</v>
+        <v>2723</v>
       </c>
       <c r="M75" s="2">
-        <v>5119</v>
+        <v>2978</v>
       </c>
       <c r="N75" s="2">
-        <v>5301</v>
+        <v>2720</v>
       </c>
       <c r="O75" s="2">
-        <v>5192</v>
+        <v>2629</v>
+      </c>
+      <c r="P75" s="2">
+        <v>2468</v>
       </c>
       <c r="X75" s="2">
-        <v>5301</v>
-      </c>
-    </row>
-    <row r="76" spans="2:37" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B76" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="L76" s="2">
-        <v>2723</v>
-      </c>
-      <c r="M76" s="2">
-        <v>2978</v>
-      </c>
-      <c r="N76" s="2">
         <v>2720</v>
       </c>
-      <c r="O76" s="2">
-        <v>2629</v>
-      </c>
-      <c r="X76" s="2">
-        <v>2720</v>
-      </c>
-      <c r="AJ76" s="4"/>
-      <c r="AK76" s="4"/>
-    </row>
-    <row r="77" spans="2:37" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B77" s="4" t="s">
+      <c r="AJ75" s="4"/>
+      <c r="AK75" s="4"/>
+    </row>
+    <row r="76" spans="2:37" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B76" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L77" s="4">
-        <f>+SUM(L68:L76)</f>
+      <c r="L76" s="4">
+        <f>+SUM(L67:L75)</f>
         <v>51914</v>
       </c>
-      <c r="M77" s="4">
-        <f>+SUM(M68:M76)</f>
+      <c r="M76" s="4">
+        <f>+SUM(M67:M75)</f>
         <v>51311</v>
       </c>
-      <c r="N77" s="4">
-        <f>+SUM(N68:N76)</f>
+      <c r="N76" s="4">
+        <f>+SUM(N67:N75)</f>
         <v>55374</v>
       </c>
-      <c r="O77" s="4">
-        <f>+SUM(O68:O76)</f>
+      <c r="O76" s="4">
+        <f>+SUM(O67:O75)</f>
         <v>53592</v>
       </c>
-      <c r="X77" s="4">
-        <f>+SUM(X68:X76)</f>
+      <c r="P76" s="4">
+        <f>+SUM(P67:P75)</f>
+        <v>54823</v>
+      </c>
+      <c r="X76" s="4">
+        <f>+SUM(X67:X75)</f>
         <v>55374</v>
       </c>
-      <c r="AJ77" s="2"/>
-      <c r="AK77" s="2"/>
+      <c r="AJ76" s="2"/>
+      <c r="AK76" s="2"/>
+    </row>
+    <row r="77" spans="2:37" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B77" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L77" s="2">
+        <v>40485</v>
+      </c>
+      <c r="M77" s="2">
+        <v>39729</v>
+      </c>
+      <c r="N77" s="2">
+        <v>39137</v>
+      </c>
+      <c r="O77" s="2">
+        <v>38296</v>
+      </c>
+      <c r="P77" s="2">
+        <v>38030</v>
+      </c>
+      <c r="X77" s="2">
+        <v>39137</v>
+      </c>
     </row>
     <row r="78" spans="2:37" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B78" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L78" s="2">
-        <v>40485</v>
+        <f>+L77+L76</f>
+        <v>92399</v>
       </c>
       <c r="M78" s="2">
-        <v>39729</v>
+        <f>+M77+M76</f>
+        <v>91040</v>
       </c>
       <c r="N78" s="2">
-        <v>39137</v>
+        <f>+N77+N76</f>
+        <v>94511</v>
       </c>
       <c r="O78" s="2">
-        <v>38296</v>
+        <f>+O77+O76</f>
+        <v>91888</v>
+      </c>
+      <c r="P78" s="2">
+        <f>+P77+P76</f>
+        <v>92853</v>
       </c>
       <c r="X78" s="2">
-        <v>39137</v>
-      </c>
+        <f>+X77+X76</f>
+        <v>94511</v>
+      </c>
+      <c r="AJ78"/>
+      <c r="AK78"/>
     </row>
     <row r="79" spans="2:37" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B79" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="L79" s="2">
-        <f>+L78+L77</f>
-        <v>92399</v>
-      </c>
-      <c r="M79" s="2">
-        <f>+M78+M77</f>
-        <v>91040</v>
-      </c>
-      <c r="N79" s="2">
-        <f>+N78+N77</f>
-        <v>94511</v>
-      </c>
-      <c r="O79" s="2">
-        <f>+O78+O77</f>
-        <v>91888</v>
-      </c>
-      <c r="X79" s="2">
-        <f>+X78+X77</f>
-        <v>94511</v>
-      </c>
       <c r="AJ79"/>
       <c r="AK79"/>
     </row>
     <row r="80" spans="2:37" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B80" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="O80" s="2">
+        <f>+SUM(L46:O46)</f>
+        <v>21345</v>
+      </c>
+      <c r="P80" s="2">
+        <f>+SUM(M46:P46)</f>
+        <v>22418</v>
+      </c>
       <c r="AJ80"/>
       <c r="AK80"/>
     </row>
-    <row r="81" spans="2:37" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B81" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="O81" s="2">
-        <f>+SUM(L46:O46)</f>
-        <v>21345</v>
-      </c>
-      <c r="AJ81"/>
-      <c r="AK81"/>
-    </row>
-    <row r="82" spans="2:37" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B82" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="O82" s="5">
-        <f>+O81/(O59+O60+O61+O62+O63+O64+O66)</f>
+    <row r="81" spans="2:24" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B81" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="O81" s="5">
+        <f>+O80/(O58+O59+O60+O61+O62+O63+O65)</f>
         <v>0.78336024662360537</v>
       </c>
-    </row>
-    <row r="84" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="P81" s="5">
+        <f>+P80/(P58+P59+P60+P61+P62+P63+P65)</f>
+        <v>0.78228705028439827</v>
+      </c>
+    </row>
+    <row r="83" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B83" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="K83" s="2">
+        <f>+K46</f>
+        <v>5333</v>
+      </c>
+      <c r="L83" s="2">
+        <f>+L46</f>
+        <v>4967</v>
+      </c>
+      <c r="M83" s="2">
+        <f>+M46</f>
+        <v>5149</v>
+      </c>
+      <c r="N83" s="2">
+        <f>+N46</f>
+        <v>5602</v>
+      </c>
+      <c r="O83" s="2">
+        <f>+O46</f>
+        <v>5627</v>
+      </c>
+      <c r="P83" s="2">
+        <f>+P46</f>
+        <v>6040</v>
+      </c>
+      <c r="X83" s="2">
+        <f>+X46</f>
+        <v>21239</v>
+      </c>
+    </row>
+    <row r="84" spans="2:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B84" s="2" t="s">
         <v>72</v>
       </c>
       <c r="K84" s="2">
-        <f>+K46</f>
-        <v>5333</v>
+        <v>4890</v>
       </c>
       <c r="L84" s="2">
-        <f>+L46</f>
-        <v>4967</v>
+        <f>9553-K84</f>
+        <v>4663</v>
       </c>
       <c r="M84" s="2">
-        <f>+M46</f>
-        <v>5149</v>
+        <f>14425-SUM(K84:L84)</f>
+        <v>4872</v>
       </c>
       <c r="N84" s="2">
-        <f>+N46</f>
-        <v>5602</v>
+        <f>+X84-SUM(K84:M84)</f>
+        <v>5318</v>
       </c>
       <c r="O84" s="2">
-        <f>+O46</f>
-        <v>5627</v>
+        <v>5119</v>
+      </c>
+      <c r="P84" s="2">
+        <f>9696-O84</f>
+        <v>4577</v>
       </c>
       <c r="X84" s="2">
-        <f>+X46</f>
-        <v>21239</v>
-      </c>
-    </row>
-    <row r="85" spans="2:37" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>19743</v>
+      </c>
+    </row>
+    <row r="85" spans="2:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B85" s="2" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="K85" s="2">
-        <v>4890</v>
+        <v>3348</v>
       </c>
       <c r="L85" s="2">
-        <f>9553-K85</f>
-        <v>4663</v>
+        <f>6605-K85</f>
+        <v>3257</v>
       </c>
       <c r="M85" s="2">
-        <f>14425-SUM(K85:L85)</f>
-        <v>4872</v>
+        <f>10135-SUM(K85:L85)</f>
+        <v>3530</v>
       </c>
       <c r="N85" s="2">
-        <f>+X85-SUM(K85:M85)</f>
-        <v>5318</v>
+        <f t="shared" ref="N85:N92" si="57">+X85-SUM(K85:M85)</f>
+        <v>3629</v>
       </c>
       <c r="O85" s="2">
-        <v>5119</v>
+        <v>3797</v>
+      </c>
+      <c r="P85" s="2">
+        <f>7531-O85</f>
+        <v>3734</v>
       </c>
       <c r="X85" s="2">
-        <v>19743</v>
-      </c>
-    </row>
-    <row r="86" spans="2:37" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>13764</v>
+      </c>
+    </row>
+    <row r="86" spans="2:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B86" s="2" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="K86" s="2">
-        <v>3348</v>
+        <v>209</v>
       </c>
       <c r="L86" s="2">
-        <f>6605-K86</f>
-        <v>3257</v>
+        <f>451-K86</f>
+        <v>242</v>
       </c>
       <c r="M86" s="2">
-        <f>10135-SUM(K86:L86)</f>
-        <v>3530</v>
+        <f>662-SUM(K86:L86)</f>
+        <v>211</v>
       </c>
       <c r="N86" s="2">
-        <f t="shared" ref="N86:N93" si="45">+X86-SUM(K86:M86)</f>
-        <v>3629</v>
+        <f t="shared" si="57"/>
+        <v>188</v>
       </c>
       <c r="O86" s="2">
-        <v>3797</v>
+        <v>224</v>
+      </c>
+      <c r="P86" s="2">
+        <f>483-O86</f>
+        <v>259</v>
       </c>
       <c r="X86" s="2">
-        <v>13764</v>
-      </c>
-    </row>
-    <row r="87" spans="2:37" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="87" spans="2:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B87" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K87" s="2">
+        <v>247</v>
+      </c>
+      <c r="L87" s="2">
+        <f>496-K87</f>
+        <v>249</v>
+      </c>
+      <c r="M87" s="2">
+        <f>760-SUM(K87:L87)</f>
+        <v>264</v>
+      </c>
+      <c r="N87" s="2">
+        <f t="shared" si="57"/>
+        <v>274</v>
+      </c>
+      <c r="O87" s="2">
+        <v>282</v>
+      </c>
+      <c r="P87" s="2">
+        <f>587-O87</f>
+        <v>305</v>
+      </c>
+      <c r="X87" s="2">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="88" spans="2:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B88" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="K87" s="2">
-        <v>209</v>
-      </c>
-      <c r="L87" s="2">
-        <f>451-K87</f>
-        <v>242</v>
-      </c>
-      <c r="M87" s="2">
-        <f>662-SUM(K87:L87)</f>
-        <v>211</v>
-      </c>
-      <c r="N87" s="2">
-        <f t="shared" si="45"/>
-        <v>188</v>
-      </c>
-      <c r="O87" s="2">
-        <v>224</v>
-      </c>
-      <c r="X87" s="2">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="88" spans="2:37" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B88" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="K88" s="2">
-        <v>247</v>
+        <v>59</v>
       </c>
       <c r="L88" s="2">
-        <f>496-K88</f>
-        <v>249</v>
+        <f>-68-K88</f>
+        <v>-127</v>
       </c>
       <c r="M88" s="2">
-        <f>760-SUM(K88:L88)</f>
-        <v>264</v>
+        <f>-99-SUM(K88:L88)</f>
+        <v>-31</v>
       </c>
       <c r="N88" s="2">
-        <f t="shared" si="45"/>
-        <v>274</v>
+        <f t="shared" si="57"/>
+        <v>-1</v>
       </c>
       <c r="O88" s="2">
-        <v>282</v>
+        <v>38</v>
+      </c>
+      <c r="P88" s="2">
+        <f>-86-O88</f>
+        <v>-124</v>
       </c>
       <c r="X88" s="2">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="89" spans="2:37" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="89" spans="2:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B89" s="2" t="s">
         <v>93</v>
       </c>
       <c r="K89" s="2">
-        <v>59</v>
+        <v>-24</v>
       </c>
       <c r="L89" s="2">
-        <f>-68-K89</f>
-        <v>-127</v>
+        <f>-60-K89</f>
+        <v>-36</v>
       </c>
       <c r="M89" s="2">
-        <f>-99-SUM(K89:L89)</f>
-        <v>-31</v>
+        <f>-81-SUM(K89:L89)</f>
+        <v>-21</v>
       </c>
       <c r="N89" s="2">
-        <f t="shared" si="45"/>
-        <v>-1</v>
+        <f t="shared" si="57"/>
+        <v>-58</v>
       </c>
       <c r="O89" s="2">
-        <v>38</v>
+        <v>-27</v>
+      </c>
+      <c r="P89" s="2">
+        <f>-24-O89</f>
+        <v>3</v>
       </c>
       <c r="X89" s="2">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="90" spans="2:37" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>-139</v>
+      </c>
+    </row>
+    <row r="90" spans="2:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B90" s="2" t="s">
         <v>94</v>
       </c>
       <c r="K90" s="2">
-        <v>-24</v>
+        <v>-4</v>
       </c>
       <c r="L90" s="2">
-        <f>-60-K90</f>
-        <v>-36</v>
+        <f>26-K90</f>
+        <v>30</v>
       </c>
       <c r="M90" s="2">
-        <f>-81-SUM(K90:L90)</f>
-        <v>-21</v>
+        <f>48-SUM(K90:L90)</f>
+        <v>22</v>
       </c>
       <c r="N90" s="2">
-        <f t="shared" si="45"/>
-        <v>-58</v>
+        <f t="shared" si="57"/>
+        <v>46</v>
       </c>
       <c r="O90" s="2">
-        <v>-27</v>
+        <v>75</v>
+      </c>
+      <c r="P90" s="2">
+        <f>98-O90</f>
+        <v>23</v>
       </c>
       <c r="X90" s="2">
-        <v>-139</v>
-      </c>
-    </row>
-    <row r="91" spans="2:37" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="91" spans="2:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B91" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K91" s="2">
+        <v>11</v>
+      </c>
+      <c r="L91" s="2">
+        <f>58-K91</f>
+        <v>47</v>
+      </c>
+      <c r="M91" s="2">
+        <f>122-SUM(K91:L91)</f>
+        <v>64</v>
+      </c>
+      <c r="N91" s="2">
+        <f t="shared" si="57"/>
+        <v>14</v>
+      </c>
+      <c r="O91" s="2">
+        <v>56</v>
+      </c>
+      <c r="P91" s="2">
+        <f>65-O91</f>
+        <v>9</v>
+      </c>
+      <c r="X91" s="2">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="92" spans="2:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B92" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="K91" s="2">
-        <v>-4</v>
-      </c>
-      <c r="L91" s="2">
-        <f>26-K91</f>
-        <v>30</v>
-      </c>
-      <c r="M91" s="2">
-        <f>48-SUM(K91:L91)</f>
-        <v>22</v>
-      </c>
-      <c r="N91" s="2">
-        <f t="shared" si="45"/>
-        <v>46</v>
-      </c>
-      <c r="O91" s="2">
-        <v>75</v>
-      </c>
-      <c r="X91" s="2">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="92" spans="2:37" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B92" s="2" t="s">
-        <v>11</v>
-      </c>
       <c r="K92" s="2">
-        <v>11</v>
-      </c>
-      <c r="L92" s="2">
-        <f>58-K92</f>
-        <v>47</v>
-      </c>
-      <c r="M92" s="2">
-        <f>122-SUM(K92:L92)</f>
-        <v>64</v>
-      </c>
-      <c r="N92" s="2">
-        <f t="shared" si="45"/>
-        <v>14</v>
-      </c>
-      <c r="O92" s="2">
-        <v>56</v>
-      </c>
-      <c r="X92" s="2">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="93" spans="2:37" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B93" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="K93" s="2">
         <f>-257-195-3601-204-18+313-877-283</f>
         <v>-5122</v>
       </c>
-      <c r="L93" s="2">
-        <f>-1335+34-7088-258-25+1143-1479+99-K93</f>
+      <c r="L92" s="2">
+        <f>-1335+34-7088-258-25+1143-1479+99-K92</f>
         <v>-3787</v>
       </c>
-      <c r="M93" s="2">
-        <f>92-214-10317-173-27-765-1216-66-SUM(K93:L93)</f>
+      <c r="M92" s="2">
+        <f>92-214-10317-173-27-765-1216-66-SUM(K92:L92)</f>
         <v>-3777</v>
       </c>
-      <c r="N93" s="2">
-        <f t="shared" si="45"/>
+      <c r="N92" s="2">
+        <f t="shared" si="57"/>
         <v>-2746</v>
       </c>
-      <c r="O93" s="2">
+      <c r="O92" s="2">
         <f>657-64-3649-10-54-673-303-72</f>
         <v>-4168</v>
       </c>
-      <c r="X93" s="2">
+      <c r="P92" s="2">
+        <f>132-156-7190-400-45-155-796+351-O92</f>
+        <v>-4091</v>
+      </c>
+      <c r="X92" s="2">
         <f>-2175-237-14067-199+109+1841-676-28</f>
         <v>-15432</v>
       </c>
     </row>
-    <row r="94" spans="2:37" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B94" s="2" t="s">
+    <row r="93" spans="2:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B93" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="K94" s="2">
-        <f>+SUM(K85:K93)</f>
+      <c r="K93" s="2">
+        <f>+SUM(K84:K92)</f>
         <v>3614</v>
       </c>
-      <c r="L94" s="2">
-        <f>+SUM(L85:L93)</f>
+      <c r="L93" s="2">
+        <f>+SUM(L84:L92)</f>
         <v>4538</v>
       </c>
-      <c r="M94" s="2">
-        <f>+SUM(M85:M93)</f>
+      <c r="M93" s="2">
+        <f>+SUM(M84:M92)</f>
         <v>5134</v>
       </c>
-      <c r="N94" s="2">
-        <f>+SUM(N85:N93)</f>
+      <c r="N93" s="2">
+        <f>+SUM(N84:N92)</f>
         <v>6664</v>
       </c>
-      <c r="O94" s="2">
-        <f>+SUM(O85:O93)</f>
+      <c r="O93" s="2">
+        <f>+SUM(O84:O92)</f>
         <v>5396</v>
       </c>
-      <c r="S94" s="2">
+      <c r="P93" s="2">
+        <f>+SUM(P84:P92)</f>
+        <v>4695</v>
+      </c>
+      <c r="S93" s="2">
         <v>12784</v>
       </c>
-      <c r="T94" s="2">
+      <c r="T93" s="2">
         <v>10440</v>
       </c>
-      <c r="U94" s="2">
+      <c r="U93" s="2">
         <v>15227</v>
       </c>
-      <c r="V94" s="2">
+      <c r="V93" s="2">
         <v>18849</v>
       </c>
-      <c r="W94" s="2">
+      <c r="W93" s="2">
         <v>20755</v>
       </c>
-      <c r="X94" s="2">
-        <f>+SUM(X85:X93)</f>
+      <c r="X93" s="2">
+        <f>+SUM(X84:X92)</f>
         <v>19950</v>
       </c>
     </row>
-    <row r="96" spans="2:37" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B95" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K95">
+        <v>-267</v>
+      </c>
+      <c r="L95">
+        <f>-548-K95</f>
+        <v>-281</v>
+      </c>
+      <c r="M95">
+        <f>-948-SUM(K95:L95)</f>
+        <v>-400</v>
+      </c>
+      <c r="N95" s="2">
+        <f t="shared" ref="N95:N98" si="58">+X95-SUM(K95:M95)</f>
+        <v>-309</v>
+      </c>
+      <c r="O95">
+        <v>-345</v>
+      </c>
+      <c r="P95">
+        <f>-672-O95</f>
+        <v>-327</v>
+      </c>
+      <c r="S95" s="2">
+        <v>-756</v>
+      </c>
+      <c r="T95" s="2">
+        <v>-736</v>
+      </c>
+      <c r="U95" s="2">
+        <v>-705</v>
+      </c>
+      <c r="V95" s="2">
+        <v>-970</v>
+      </c>
+      <c r="W95" s="2">
+        <v>-1059</v>
+      </c>
+      <c r="X95" s="2">
+        <v>-1257</v>
+      </c>
+    </row>
+    <row r="96" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B96" s="2" t="s">
-        <v>19</v>
+        <v>96</v>
       </c>
       <c r="K96">
-        <v>-267</v>
+        <f>-2743+1137</f>
+        <v>-1606</v>
       </c>
       <c r="L96">
-        <f>-548-K96</f>
-        <v>-281</v>
+        <f>-3686+2145-K96</f>
+        <v>65</v>
       </c>
       <c r="M96">
-        <f>-948-SUM(K96:L96)</f>
-        <v>-400</v>
+        <f>-4443+3866-SUM(K96:L96)</f>
+        <v>964</v>
       </c>
       <c r="N96" s="2">
-        <f t="shared" ref="N96:N99" si="46">+X96-SUM(K96:M96)</f>
-        <v>-309</v>
+        <f t="shared" si="58"/>
+        <v>1147</v>
       </c>
       <c r="O96">
-        <v>-345</v>
-      </c>
-      <c r="S96" s="2">
-        <v>-756</v>
-      </c>
-      <c r="T96" s="2">
-        <v>-736</v>
-      </c>
-      <c r="U96" s="2">
-        <v>-705</v>
-      </c>
-      <c r="V96" s="2">
-        <v>-970</v>
-      </c>
-      <c r="W96" s="2">
-        <v>-1059</v>
-      </c>
-      <c r="X96" s="2">
-        <v>-1257</v>
+        <v>2042</v>
+      </c>
+      <c r="P96">
+        <f>2268-O96</f>
+        <v>226</v>
+      </c>
+      <c r="X96">
+        <f>-4443+5013</f>
+        <v>570</v>
       </c>
     </row>
     <row r="97" spans="2:24" x14ac:dyDescent="0.2">
@@ -5490,111 +5659,125 @@
         <v>97</v>
       </c>
       <c r="K97">
-        <f>-2743+1137</f>
-        <v>-1606</v>
+        <v>0</v>
       </c>
       <c r="L97">
-        <f>-3686+2145-K97</f>
-        <v>65</v>
+        <f>-915-K97</f>
+        <v>-915</v>
       </c>
       <c r="M97">
-        <f>-4443+3866-SUM(K97:L97)</f>
-        <v>964</v>
+        <f>-915-SUM(K97:L97)</f>
+        <v>0</v>
       </c>
       <c r="N97" s="2">
-        <f t="shared" si="46"/>
-        <v>1147</v>
+        <f t="shared" si="58"/>
+        <v>0</v>
       </c>
       <c r="O97">
-        <v>2042</v>
+        <v>-906</v>
+      </c>
+      <c r="P97">
+        <f>-887-O97</f>
+        <v>19</v>
       </c>
       <c r="X97">
-        <f>-4443+5013</f>
-        <v>570</v>
+        <v>-915</v>
       </c>
     </row>
     <row r="98" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B98" s="2" t="s">
-        <v>98</v>
+        <v>11</v>
       </c>
       <c r="K98">
-        <v>0</v>
+        <f>-11-5</f>
+        <v>-16</v>
       </c>
       <c r="L98">
-        <f>-915-K98</f>
-        <v>-915</v>
+        <f>-47-K98</f>
+        <v>-31</v>
       </c>
       <c r="M98">
-        <f>-915-SUM(K98:L98)</f>
-        <v>0</v>
+        <f>-19-51-SUM(K98:L98)</f>
+        <v>-23</v>
       </c>
       <c r="N98" s="2">
-        <f t="shared" si="46"/>
-        <v>0</v>
+        <f t="shared" si="58"/>
+        <v>-254</v>
       </c>
       <c r="O98">
-        <v>-906</v>
+        <f>-6+5</f>
+        <v>-1</v>
+      </c>
+      <c r="P98">
+        <f>-24-25-O98</f>
+        <v>-48</v>
       </c>
       <c r="X98">
-        <v>-915</v>
+        <f>-231-93</f>
+        <v>-324</v>
       </c>
     </row>
     <row r="99" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B99" s="2" t="s">
-        <v>11</v>
+        <v>98</v>
       </c>
       <c r="K99">
-        <f>-11-5</f>
-        <v>-16</v>
+        <f>+SUM(K95:K98)</f>
+        <v>-1889</v>
       </c>
       <c r="L99">
-        <f>-47-K99</f>
-        <v>-31</v>
+        <f>+SUM(L95:L98)</f>
+        <v>-1162</v>
       </c>
       <c r="M99">
-        <f>-19-51-SUM(K99:L99)</f>
-        <v>-23</v>
-      </c>
-      <c r="N99" s="2">
-        <f t="shared" si="46"/>
-        <v>-254</v>
+        <f>+SUM(M95:M98)</f>
+        <v>541</v>
+      </c>
+      <c r="N99">
+        <f>+SUM(N95:N98)</f>
+        <v>584</v>
       </c>
       <c r="O99">
-        <f>-6+5</f>
-        <v>-1</v>
-      </c>
-      <c r="X99">
-        <f>-231-93</f>
-        <v>-324</v>
-      </c>
-    </row>
-    <row r="100" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B100" s="2" t="s">
+        <f>+SUM(O95:O98)</f>
+        <v>790</v>
+      </c>
+      <c r="P99">
+        <f>+SUM(P95:P98)</f>
+        <v>-130</v>
+      </c>
+      <c r="X99" s="2">
+        <f>+SUM(X95:X98)</f>
+        <v>-1926</v>
+      </c>
+    </row>
+    <row r="101" spans="2:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B101" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="K100">
-        <f>+SUM(K96:K99)</f>
-        <v>-1889</v>
-      </c>
-      <c r="L100">
-        <f>+SUM(L96:L99)</f>
-        <v>-1162</v>
-      </c>
-      <c r="M100">
-        <f>+SUM(M96:M99)</f>
-        <v>541</v>
-      </c>
-      <c r="N100">
-        <f>+SUM(N96:N99)</f>
-        <v>584</v>
-      </c>
-      <c r="O100">
-        <f>+SUM(O96:O99)</f>
-        <v>790</v>
-      </c>
-      <c r="X100" s="2">
-        <f>+SUM(X96:X99)</f>
-        <v>-1926</v>
+      <c r="K101" s="2">
+        <v>-3580</v>
+      </c>
+      <c r="L101" s="2">
+        <f>-6338-K101</f>
+        <v>-2758</v>
+      </c>
+      <c r="M101" s="2">
+        <f>-10865-SUM(K101:L101)</f>
+        <v>-4527</v>
+      </c>
+      <c r="N101" s="2">
+        <f t="shared" ref="N101:N106" si="59">+X101-SUM(K101:M101)</f>
+        <v>-5848</v>
+      </c>
+      <c r="O101" s="2">
+        <v>-4011</v>
+      </c>
+      <c r="P101" s="2">
+        <f>-8607-O101</f>
+        <v>-4596</v>
+      </c>
+      <c r="X101" s="2">
+        <v>-16713</v>
       </c>
     </row>
     <row r="102" spans="2:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -5602,25 +5785,29 @@
         <v>100</v>
       </c>
       <c r="K102" s="2">
-        <v>-3580</v>
+        <v>-1060</v>
       </c>
       <c r="L102" s="2">
-        <f>-6338-K102</f>
-        <v>-2758</v>
+        <f>-2120-K102</f>
+        <v>-1060</v>
       </c>
       <c r="M102" s="2">
-        <f>-10865-SUM(K102:L102)</f>
-        <v>-4527</v>
+        <f>-3176-SUM(K102:L102)</f>
+        <v>-1056</v>
       </c>
       <c r="N102" s="2">
-        <f t="shared" ref="N102:N107" si="47">+X102-SUM(K102:M102)</f>
-        <v>-5848</v>
+        <f t="shared" si="59"/>
+        <v>-1041</v>
       </c>
       <c r="O102" s="2">
-        <v>-4011</v>
+        <v>-1170</v>
+      </c>
+      <c r="P102" s="2">
+        <f>-2334-O102</f>
+        <v>-1164</v>
       </c>
       <c r="X102" s="2">
-        <v>-16713</v>
+        <v>-4217</v>
       </c>
     </row>
     <row r="103" spans="2:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -5628,226 +5815,228 @@
         <v>101</v>
       </c>
       <c r="K103" s="2">
-        <v>-1060</v>
+        <f>104-172</f>
+        <v>-68</v>
       </c>
       <c r="L103" s="2">
-        <f>-2120-K103</f>
-        <v>-1060</v>
+        <f>183-181-K103</f>
+        <v>70</v>
       </c>
       <c r="M103" s="2">
-        <f>-3176-SUM(K103:L103)</f>
-        <v>-1056</v>
+        <f>267-189-SUM(K103:L103)</f>
+        <v>76</v>
       </c>
       <c r="N103" s="2">
-        <f t="shared" si="47"/>
-        <v>-1041</v>
+        <f t="shared" si="59"/>
+        <v>49</v>
       </c>
       <c r="O103" s="2">
-        <v>-1170</v>
+        <f>127-235</f>
+        <v>-108</v>
+      </c>
+      <c r="P103" s="2">
+        <f>246-242-O103</f>
+        <v>112</v>
       </c>
       <c r="X103" s="2">
-        <v>-4217</v>
+        <f>335-208</f>
+        <v>127</v>
       </c>
     </row>
     <row r="104" spans="2:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B104" s="2" t="s">
-        <v>102</v>
+        <v>11</v>
       </c>
       <c r="K104" s="2">
-        <f>104-172</f>
-        <v>-68</v>
+        <v>329</v>
       </c>
       <c r="L104" s="2">
-        <f>183-181-K104</f>
-        <v>70</v>
+        <f>203-K104</f>
+        <v>-126</v>
       </c>
       <c r="M104" s="2">
-        <f>267-189-SUM(K104:L104)</f>
-        <v>76</v>
+        <f>399-SUM(K104:L104)</f>
+        <v>196</v>
       </c>
       <c r="N104" s="2">
-        <f t="shared" si="47"/>
-        <v>49</v>
+        <f t="shared" si="59"/>
+        <v>-229</v>
       </c>
       <c r="O104" s="2">
-        <f>127-235</f>
-        <v>-108</v>
+        <v>-186</v>
+      </c>
+      <c r="P104" s="2">
+        <f>-198-O104</f>
+        <v>-12</v>
       </c>
       <c r="X104" s="2">
-        <f>335-208</f>
-        <v>127</v>
+        <v>170</v>
       </c>
     </row>
     <row r="105" spans="2:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B105" s="2" t="s">
-        <v>11</v>
+        <v>102</v>
       </c>
       <c r="K105" s="2">
-        <v>329</v>
+        <f>+SUM(K101:K104)</f>
+        <v>-4379</v>
       </c>
       <c r="L105" s="2">
-        <f>203-K105</f>
-        <v>-126</v>
+        <f>+SUM(L101:L104)</f>
+        <v>-3874</v>
       </c>
       <c r="M105" s="2">
-        <f>399-SUM(K105:L105)</f>
-        <v>196</v>
+        <f>+SUM(M101:M104)</f>
+        <v>-5311</v>
       </c>
       <c r="N105" s="2">
-        <f t="shared" si="47"/>
-        <v>-229</v>
+        <f>+SUM(N101:N104)</f>
+        <v>-7069</v>
       </c>
       <c r="O105" s="2">
-        <v>-186</v>
+        <f>+SUM(O101:O104)</f>
+        <v>-5475</v>
+      </c>
+      <c r="P105" s="2">
+        <f>+SUM(P101:P104)</f>
+        <v>-5660</v>
       </c>
       <c r="X105" s="2">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="106" spans="2:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <f>+SUM(X101:X104)</f>
+        <v>-20633</v>
+      </c>
+    </row>
+    <row r="106" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B106" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="K106" s="2">
-        <f>+SUM(K102:K105)</f>
-        <v>-4379</v>
-      </c>
-      <c r="L106" s="2">
-        <f>+SUM(L102:L105)</f>
-        <v>-3874</v>
-      </c>
-      <c r="M106" s="2">
-        <f>+SUM(M102:M105)</f>
-        <v>-5311</v>
+      <c r="K106">
+        <v>300</v>
+      </c>
+      <c r="L106">
+        <f>124-K106</f>
+        <v>-176</v>
+      </c>
+      <c r="M106">
+        <f>74-SUM(K106:L106)</f>
+        <v>-50</v>
       </c>
       <c r="N106" s="2">
-        <f>+SUM(N102:N105)</f>
-        <v>-7069</v>
-      </c>
-      <c r="O106" s="2">
-        <f>+SUM(O102:O105)</f>
-        <v>-5475</v>
+        <f t="shared" si="59"/>
+        <v>308</v>
+      </c>
+      <c r="O106">
+        <v>-508</v>
+      </c>
+      <c r="P106">
+        <f>-243-O106</f>
+        <v>265</v>
       </c>
       <c r="X106" s="2">
-        <f>+SUM(X102:X105)</f>
-        <v>-20633</v>
+        <v>382</v>
       </c>
     </row>
     <row r="107" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B107" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="K107">
-        <v>300</v>
-      </c>
-      <c r="L107">
-        <f>124-K107</f>
-        <v>-176</v>
-      </c>
-      <c r="M107">
-        <f>74-SUM(K107:L107)</f>
-        <v>-50</v>
+      <c r="K107" s="2">
+        <f>+K93+K99+K105+K106</f>
+        <v>-2354</v>
+      </c>
+      <c r="L107" s="2">
+        <f>+L93+L99+L105+L106</f>
+        <v>-674</v>
+      </c>
+      <c r="M107" s="2">
+        <f>+M93+M99+M105+M106</f>
+        <v>314</v>
       </c>
       <c r="N107" s="2">
-        <f t="shared" si="47"/>
-        <v>308</v>
-      </c>
-      <c r="O107">
-        <v>-508</v>
+        <f>+N93+N99+N105+N106</f>
+        <v>487</v>
+      </c>
+      <c r="O107" s="2">
+        <f>+O93+O99+O105+O106</f>
+        <v>203</v>
+      </c>
+      <c r="P107" s="2">
+        <f>+P93+P99+P105+P106</f>
+        <v>-830</v>
       </c>
       <c r="X107" s="2">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="108" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B108" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="K108" s="2">
-        <f>+K94+K100+K106+K107</f>
-        <v>-2354</v>
-      </c>
-      <c r="L108" s="2">
-        <f>+L94+L100+L106+L107</f>
-        <v>-674</v>
-      </c>
-      <c r="M108" s="2">
-        <f>+M94+M100+M106+M107</f>
-        <v>314</v>
-      </c>
-      <c r="N108" s="2">
-        <f>+N94+N100+N106+N107</f>
-        <v>487</v>
-      </c>
-      <c r="O108" s="2">
-        <f>+O94+O100+O106+O107</f>
-        <v>203</v>
-      </c>
-      <c r="X108" s="2">
-        <f>+X94+X100+X106+X107</f>
+        <f>+X93+X99+X105+X106</f>
         <v>-2227</v>
       </c>
     </row>
+    <row r="109" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B109" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K109" s="2">
+        <f>+K93+K95</f>
+        <v>3347</v>
+      </c>
+      <c r="L109" s="2">
+        <f>+L93+L95</f>
+        <v>4257</v>
+      </c>
+      <c r="M109" s="2">
+        <f>+M93+M95</f>
+        <v>4734</v>
+      </c>
+      <c r="N109" s="2">
+        <f>+N93+N95</f>
+        <v>6355</v>
+      </c>
+      <c r="O109" s="2">
+        <f>+O93+O95</f>
+        <v>5051</v>
+      </c>
+      <c r="P109" s="2">
+        <f>+P93+P95</f>
+        <v>4368</v>
+      </c>
+      <c r="S109" s="2">
+        <f t="shared" ref="S109:X109" si="60">+S93+S95</f>
+        <v>12028</v>
+      </c>
+      <c r="T109" s="2">
+        <f t="shared" si="60"/>
+        <v>9704</v>
+      </c>
+      <c r="U109" s="2">
+        <f t="shared" si="60"/>
+        <v>14522</v>
+      </c>
+      <c r="V109" s="2">
+        <f t="shared" si="60"/>
+        <v>17879</v>
+      </c>
+      <c r="W109" s="2">
+        <f t="shared" si="60"/>
+        <v>19696</v>
+      </c>
+      <c r="X109" s="2">
+        <f t="shared" si="60"/>
+        <v>18693</v>
+      </c>
+    </row>
     <row r="110" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B110" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="K110" s="2">
-        <f>+K94+K96</f>
-        <v>3347</v>
-      </c>
-      <c r="L110" s="2">
-        <f>+L94+L96</f>
-        <v>4257</v>
-      </c>
-      <c r="M110" s="2">
-        <f>+M94+M96</f>
-        <v>4734</v>
+      <c r="B110" s="10" t="s">
+        <v>111</v>
       </c>
       <c r="N110" s="2">
-        <f>+N94+N96</f>
-        <v>6355</v>
+        <f>+SUM(K109:N109)</f>
+        <v>18693</v>
       </c>
       <c r="O110" s="2">
-        <f>+O94+O96</f>
-        <v>5051</v>
-      </c>
-      <c r="S110" s="2">
-        <f t="shared" ref="S110:X110" si="48">+S94+S96</f>
-        <v>12028</v>
-      </c>
-      <c r="T110" s="2">
-        <f t="shared" si="48"/>
-        <v>9704</v>
-      </c>
-      <c r="U110" s="2">
-        <f t="shared" si="48"/>
-        <v>14522</v>
-      </c>
-      <c r="V110" s="2">
-        <f t="shared" si="48"/>
-        <v>17879</v>
-      </c>
-      <c r="W110" s="2">
-        <f t="shared" si="48"/>
-        <v>19696</v>
-      </c>
-      <c r="X110" s="2">
-        <f t="shared" si="48"/>
-        <v>18693</v>
-      </c>
-    </row>
-    <row r="111" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B111" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="N111" s="2">
-        <f>+SUM(K110:N110)</f>
-        <v>18693</v>
-      </c>
-      <c r="O111" s="2">
-        <f>+SUM(L110:O110)</f>
+        <f>+SUM(L109:O109)</f>
         <v>20397</v>
+      </c>
+      <c r="P110" s="2">
+        <f>+SUM(M109:P109)</f>
+        <v>20508</v>
       </c>
     </row>
   </sheetData>
